--- a/Results/100K/gnmf_100k_200_2000_50_100_2000.xlsx
+++ b/Results/100K/gnmf_100k_200_2000_50_100_2000.xlsx
@@ -1,21 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ashutosh\iiitd\sem_3\cf\github\GNMF\Results\100K\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100K </t>
+  </si>
+  <si>
+    <t>fold 1</t>
+  </si>
+  <si>
+    <t>fold 2</t>
+  </si>
+  <si>
+    <t>fold 3</t>
+  </si>
+  <si>
+    <t>fold 4</t>
+  </si>
+  <si>
+    <t>fold 5</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>NMF</t>
+  </si>
+  <si>
+    <t>GNMF</t>
+  </si>
+  <si>
+    <t>NMF l1+l2</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>Variations</t>
+  </si>
+  <si>
+    <t>Neighbours</t>
+  </si>
+  <si>
+    <t>itr 10 (100K)</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,6 +98,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -40,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -63,22 +152,4365 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>NMAE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> for 100K dataset</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$CW$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.46341674244531667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38612620916257451</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34200979301845391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31310567990144533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29440332043760009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28050461636114188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26987410146306867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26147886521536617</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25462128216844854</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24922048009813175</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24437749864088171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24032931488330442</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23679071170086155</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23395580528372295</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23120531520537063</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22859508367891074</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.226453024649686</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2248853202041658</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22395883299222225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.22166704198430492</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22005073431691105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21841407840877899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21698176703293584</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.21569861932549314</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.215007567400293</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.21376073479494587</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21412612255191749</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.21287847346088801</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2116426240755882</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.21058496919044453</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20983938892849982</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.20925175509012622</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.20877322854838548</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.20926231095112074</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.20895341543293897</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.20860353802145409</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.20808157476428976</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.20703674158147073</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.20632913790203117</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.20547221665213514</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.20462629613910313</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.20407435328831752</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.20336921581010831</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.20291546660498222</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.20309056304133125</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.20251258260571681</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.20188018089030627</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.20127651233197374</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.20085632271468173</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.20051039122218631</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.19998397445890573</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1996846824628887</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.19929347043706339</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.19893230857778238</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19870691186315928</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.19846566437015153</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.19814087734463939</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.19789256107266445</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.19747983312273645</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.19722479726999975</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.19701673876675785</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.19679059455013279</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.19660156966033951</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.19632850877672031</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.19623906473479266</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.19605417869461736</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.19590402833503123</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.19568223775000232</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.19551530317249771</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.1953696298742793</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.1952174751063453</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.19515531501490238</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.19504182001344583</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.19481594735875238</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.1947000855170575</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.19454320128524799</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.19447209176799421</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.19435348637320521</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.19444015978858259</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.19428209297873522</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.19413645104277708</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.19424955790594484</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.19413518790789869</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.19390685734850291</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.19357589464349462</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.19335916013068968</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.19324045405024409</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.19322027341617898</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.19312150986714788</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.19310935061799911</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.192928165043773</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.19286192248020662</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.19280251993518169</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.19265338972700347</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.1932103689767331</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.19317981127755274</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.19305510932368872</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.192878151667601</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.19278004565416401</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.19263520078628166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="448292928"/>
+        <c:axId val="448293712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="448292928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448293712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448293712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>NMAE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448292928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>NMAE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> for 1M dataset</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.60244176517891168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55216047910248167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48907400401638917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44774112225906693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40752485228254376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38828571015174712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33960956928112573</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29913182180637887</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29128674680070515</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28792678885375317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="448632168"/>
+        <c:axId val="448630992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="448632168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Number of iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448630992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448630992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>NMAE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448632168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Variation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> of #Neighbours (100K)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$61:$A$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$61:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.28272114799999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27091421500000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26678393099999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26149692899999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25672445300000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26977474000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="448637264"/>
+        <c:axId val="448637656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="448637264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> of Neighbours</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448637656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448637656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>NAME</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448637264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Variation of Lambda</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$69:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$69:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.28836862299999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28272114799999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26678393099999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25672445300000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="438990936"/>
+        <c:axId val="438991720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="438990936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Lambda</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438991720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="438991720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>NMAE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438990936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -124,7 +4556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +4588,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +4623,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,336 +4799,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CZ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BR1" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BS1" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BT1" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BU1" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BV1" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BW1" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BX1" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY1" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BZ1" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CA1" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CB1" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CC1" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CD1" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CE1" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CF1" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CG1" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CH1" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CI1" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CJ1" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CK1" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CL1" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CM1" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CN1" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CO1" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CP1" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CQ1" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CR1" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CS1" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CT1" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CU1" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CV1" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CW1" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:101">
+    <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4868865257617423</v>
+        <v>0.48688652576174202</v>
       </c>
       <c r="C2">
-        <v>0.4072589143412045</v>
+        <v>0.40725891434120448</v>
       </c>
       <c r="D2">
-        <v>0.3614383952863535</v>
+        <v>0.36143839528635352</v>
       </c>
       <c r="E2">
-        <v>0.3293760582266946</v>
+        <v>0.32937605822669458</v>
       </c>
       <c r="F2">
-        <v>0.3079626894332193</v>
+        <v>0.30796268943321931</v>
       </c>
       <c r="G2">
-        <v>0.2932079027878364</v>
+        <v>0.29320790278783643</v>
       </c>
       <c r="H2">
         <v>0.2810916023823839</v>
@@ -706,88 +5148,88 @@
         <v>0.2646156491845893</v>
       </c>
       <c r="K2">
-        <v>0.2582119785953279</v>
+        <v>0.25821197859532791</v>
       </c>
       <c r="L2">
-        <v>0.2523288579750635</v>
+        <v>0.25232885797506349</v>
       </c>
       <c r="M2">
         <v>0.2476524676414964</v>
       </c>
       <c r="N2">
-        <v>0.2442355302402978</v>
+        <v>0.24423553024029779</v>
       </c>
       <c r="O2">
-        <v>0.2409578034448464</v>
+        <v>0.24095780344484641</v>
       </c>
       <c r="P2">
-        <v>0.2378279850479482</v>
+        <v>0.23782798504794819</v>
       </c>
       <c r="Q2">
         <v>0.2346495227067677</v>
       </c>
       <c r="R2">
-        <v>0.2323543638106711</v>
+        <v>0.23235436381067109</v>
       </c>
       <c r="S2">
-        <v>0.2297333564868521</v>
+        <v>0.22973335648685211</v>
       </c>
       <c r="T2">
-        <v>0.2314589956770624</v>
+        <v>0.23145899567706241</v>
       </c>
       <c r="U2">
-        <v>0.2273169132465302</v>
+        <v>0.22731691324653019</v>
       </c>
       <c r="V2">
-        <v>0.2238280876235463</v>
+        <v>0.22382808762354631</v>
       </c>
       <c r="W2">
-        <v>0.2218169564647395</v>
+        <v>0.22181695646473951</v>
       </c>
       <c r="X2">
-        <v>0.2193139513093889</v>
+        <v>0.21931395130938891</v>
       </c>
       <c r="Y2">
-        <v>0.2173147844476996</v>
+        <v>0.21731478444769961</v>
       </c>
       <c r="Z2">
-        <v>0.2173681483320301</v>
+        <v>0.21736814833203011</v>
       </c>
       <c r="AA2">
-        <v>0.2159011193175508</v>
+        <v>0.21590111931755079</v>
       </c>
       <c r="AB2">
-        <v>0.2145675956609246</v>
+        <v>0.21456759566092459</v>
       </c>
       <c r="AC2">
-        <v>0.213203408606757</v>
+        <v>0.21320340860675699</v>
       </c>
       <c r="AD2">
-        <v>0.2122533537379112</v>
+        <v>0.21225335373791121</v>
       </c>
       <c r="AE2">
         <v>0.2113151473860285</v>
       </c>
       <c r="AF2">
-        <v>0.2102375259923782</v>
+        <v>0.21023752599237819</v>
       </c>
       <c r="AG2">
-        <v>0.2094870689379237</v>
+        <v>0.20948706893792371</v>
       </c>
       <c r="AH2">
-        <v>0.2089331048645366</v>
+        <v>0.20893310486453659</v>
       </c>
       <c r="AI2">
         <v>0.2082612131736368</v>
       </c>
       <c r="AJ2">
-        <v>0.2074808833503816</v>
+        <v>0.20748088335038159</v>
       </c>
       <c r="AK2">
-        <v>0.2064955462888947</v>
+        <v>0.20649554628889469</v>
       </c>
       <c r="AL2">
-        <v>0.2058238475119016</v>
+        <v>0.20582384751190161</v>
       </c>
       <c r="AM2">
         <v>0.2052979247871764</v>
@@ -799,46 +5241,46 @@
         <v>0.2043610533253154</v>
       </c>
       <c r="AP2">
-        <v>0.2036668683971226</v>
+        <v>0.20366686839712261</v>
       </c>
       <c r="AQ2">
         <v>0.2032791065938995</v>
       </c>
       <c r="AR2">
-        <v>0.2028636427581534</v>
+        <v>0.20286364275815341</v>
       </c>
       <c r="AS2">
         <v>0.2025526457239194</v>
       </c>
       <c r="AT2">
-        <v>0.2022426943983519</v>
+        <v>0.20224269439835191</v>
       </c>
       <c r="AU2">
-        <v>0.2019398079392092</v>
+        <v>0.20193980793920921</v>
       </c>
       <c r="AV2">
-        <v>0.2015606821184563</v>
+        <v>0.20156068211845629</v>
       </c>
       <c r="AW2">
         <v>0.2013241145574077</v>
       </c>
       <c r="AX2">
-        <v>0.200954211264755</v>
+        <v>0.20095421126475499</v>
       </c>
       <c r="AY2">
-        <v>0.2006911981888019</v>
+        <v>0.20069119818880191</v>
       </c>
       <c r="AZ2">
-        <v>0.2003209003102153</v>
+        <v>0.20032090031021529</v>
       </c>
       <c r="BA2">
-        <v>0.2001691757388342</v>
+        <v>0.20016917573883419</v>
       </c>
       <c r="BB2">
-        <v>0.1999310015167367</v>
+        <v>0.19993100151673671</v>
       </c>
       <c r="BC2">
-        <v>0.1996773419208897</v>
+        <v>0.19967734192088971</v>
       </c>
       <c r="BD2">
         <v>0.1995216882218753</v>
@@ -847,91 +5289,91 @@
         <v>0.1992715268279224</v>
       </c>
       <c r="BF2">
-        <v>0.1990721451003443</v>
+        <v>0.19907214510034429</v>
       </c>
       <c r="BG2">
         <v>0.1990275391167958</v>
       </c>
       <c r="BH2">
-        <v>0.1989065205864484</v>
+        <v>0.19890652058644839</v>
       </c>
       <c r="BI2">
-        <v>0.1987470055283614</v>
+        <v>0.19874700552836139</v>
       </c>
       <c r="BJ2">
-        <v>0.1985287383719906</v>
+        <v>0.19852873837199059</v>
       </c>
       <c r="BK2">
-        <v>0.1983522329366847</v>
+        <v>0.19835223293668469</v>
       </c>
       <c r="BL2">
-        <v>0.198247239336873</v>
+        <v>0.19824723933687299</v>
       </c>
       <c r="BM2">
-        <v>0.1980622826851914</v>
+        <v>0.19806228268519141</v>
       </c>
       <c r="BN2">
-        <v>0.1980550298200112</v>
+        <v>0.19805502982001119</v>
       </c>
       <c r="BO2">
-        <v>0.1979189776602508</v>
+        <v>0.19791897766025079</v>
       </c>
       <c r="BP2">
-        <v>0.1979260332812869</v>
+        <v>0.19792603328128691</v>
       </c>
       <c r="BQ2">
-        <v>0.1976436293722517</v>
+        <v>0.19764362937225169</v>
       </c>
       <c r="BR2">
-        <v>0.1974785505964274</v>
+        <v>0.19747855059642741</v>
       </c>
       <c r="BS2">
         <v>0.1974714074545072</v>
       </c>
       <c r="BT2">
-        <v>0.1972785060413313</v>
+        <v>0.19727850604133129</v>
       </c>
       <c r="BU2">
-        <v>0.1971617854800884</v>
+        <v>0.19716178548008839</v>
       </c>
       <c r="BV2">
-        <v>0.1970853041779382</v>
+        <v>0.19708530417793821</v>
       </c>
       <c r="BW2">
-        <v>0.1971124687964599</v>
+        <v>0.19711246879645991</v>
       </c>
       <c r="BX2">
-        <v>0.1969388984567396</v>
+        <v>0.19693889845673959</v>
       </c>
       <c r="BY2">
         <v>0.1967892518573926</v>
       </c>
       <c r="BZ2">
-        <v>0.1968540592449834</v>
+        <v>0.19685405924498339</v>
       </c>
       <c r="CA2">
         <v>0.1968434962973318</v>
       </c>
       <c r="CB2">
-        <v>0.1967064113250976</v>
+        <v>0.19670641132509761</v>
       </c>
       <c r="CC2">
         <v>0.1966613745808361</v>
       </c>
       <c r="CD2">
-        <v>0.1967454388057635</v>
+        <v>0.19674543880576351</v>
       </c>
       <c r="CE2">
-        <v>0.1964952516463047</v>
+        <v>0.19649525164630471</v>
       </c>
       <c r="CF2">
-        <v>0.1970362789664661</v>
+        <v>0.19703627896646611</v>
       </c>
       <c r="CG2">
-        <v>0.1963939145528102</v>
+        <v>0.19639391455281019</v>
       </c>
       <c r="CH2">
-        <v>0.1960724859248769</v>
+        <v>0.19607248592487689</v>
       </c>
       <c r="CI2">
         <v>0.1959536517964974</v>
@@ -943,34 +5385,34 @@
         <v>0.1961168439340315</v>
       </c>
       <c r="CL2">
-        <v>0.1958035946776036</v>
+        <v>0.19580359467760361</v>
       </c>
       <c r="CM2">
-        <v>0.1957492149676152</v>
+        <v>0.19574921496761519</v>
       </c>
       <c r="CN2">
-        <v>0.1955418443934945</v>
+        <v>0.19554184439349451</v>
       </c>
       <c r="CO2">
-        <v>0.1954205703770215</v>
+        <v>0.19542057037702151</v>
       </c>
       <c r="CP2">
-        <v>0.1953490808687018</v>
+        <v>0.19534908086870181</v>
       </c>
       <c r="CQ2">
-        <v>0.1952191154635448</v>
+        <v>0.19521911546354481</v>
       </c>
       <c r="CR2">
-        <v>0.1950202204687057</v>
+        <v>0.19502022046870571</v>
       </c>
       <c r="CS2">
         <v>0.1950452155864133</v>
       </c>
       <c r="CT2">
-        <v>0.1949832832411182</v>
+        <v>0.19498328324111819</v>
       </c>
       <c r="CU2">
-        <v>0.1948767589555783</v>
+        <v>0.19487675895557829</v>
       </c>
       <c r="CV2">
         <v>0.1948098432717538</v>
@@ -979,42 +5421,42 @@
         <v>0.1946747779326134</v>
       </c>
     </row>
-    <row r="3" spans="1:101">
+    <row r="3" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4588698246749044</v>
+        <v>0.45886982467490439</v>
       </c>
       <c r="C3">
-        <v>0.3785692528703845</v>
+        <v>0.37856925287038451</v>
       </c>
       <c r="D3">
-        <v>0.3330991431998803</v>
+        <v>0.33309914319988032</v>
       </c>
       <c r="E3">
-        <v>0.3043576988149707</v>
+        <v>0.30435769881497071</v>
       </c>
       <c r="F3">
-        <v>0.2851109521059875</v>
+        <v>0.28511095210598753</v>
       </c>
       <c r="G3">
         <v>0.2718380974934298</v>
       </c>
       <c r="H3">
-        <v>0.2613511168243556</v>
+        <v>0.26135111682435558</v>
       </c>
       <c r="I3">
-        <v>0.2537610003103483</v>
+        <v>0.25376100031034832</v>
       </c>
       <c r="J3">
-        <v>0.2470380473168703</v>
+        <v>0.24703804731687029</v>
       </c>
       <c r="K3">
         <v>0.2428363027701195</v>
       </c>
       <c r="L3">
-        <v>0.2382566741757051</v>
+        <v>0.23825667417570509</v>
       </c>
       <c r="M3">
         <v>0.234243990764823</v>
@@ -1023,31 +5465,31 @@
         <v>0.230868634542232</v>
       </c>
       <c r="O3">
-        <v>0.2280683432678847</v>
+        <v>0.22806834326788469</v>
       </c>
       <c r="P3">
-        <v>0.2258762274815559</v>
+        <v>0.22587622748155589</v>
       </c>
       <c r="Q3">
-        <v>0.2229905110360041</v>
+        <v>0.22299051103600409</v>
       </c>
       <c r="R3">
-        <v>0.2207080826039161</v>
+        <v>0.22070808260391611</v>
       </c>
       <c r="S3">
-        <v>0.2211064512816737</v>
+        <v>0.22110645128167369</v>
       </c>
       <c r="T3">
         <v>0.2206455310236545</v>
       </c>
       <c r="U3">
-        <v>0.2185880496592937</v>
+        <v>0.21858804965929371</v>
       </c>
       <c r="V3">
-        <v>0.2176744559872275</v>
+        <v>0.21767445598722751</v>
       </c>
       <c r="W3">
-        <v>0.2157224057950043</v>
+        <v>0.21572240579500429</v>
       </c>
       <c r="X3">
         <v>0.2151959780307211</v>
@@ -1056,91 +5498,91 @@
         <v>0.2143113629789358</v>
       </c>
       <c r="Z3">
-        <v>0.2142342445141837</v>
+        <v>0.21423424451418371</v>
       </c>
       <c r="AA3">
         <v>0.2127136050339784</v>
       </c>
       <c r="AB3">
-        <v>0.2170418947940227</v>
+        <v>0.21704189479402269</v>
       </c>
       <c r="AC3">
-        <v>0.2158007140548693</v>
+        <v>0.21580071405486931</v>
       </c>
       <c r="AD3">
         <v>0.2131089265686345</v>
       </c>
       <c r="AE3">
-        <v>0.2109786719638433</v>
+        <v>0.21097867196384329</v>
       </c>
       <c r="AF3">
-        <v>0.209360210130169</v>
+        <v>0.20936021013016901</v>
       </c>
       <c r="AG3">
         <v>0.207929273880954</v>
       </c>
       <c r="AH3">
-        <v>0.2067623328317365</v>
+        <v>0.20676233283173651</v>
       </c>
       <c r="AI3">
         <v>0.2056667891611442</v>
       </c>
       <c r="AJ3">
-        <v>0.2068649398622913</v>
+        <v>0.20686493986229129</v>
       </c>
       <c r="AK3">
         <v>0.2057121161171645</v>
       </c>
       <c r="AL3">
-        <v>0.2078778102019503</v>
+        <v>0.20787781020195031</v>
       </c>
       <c r="AM3">
-        <v>0.2066102437494478</v>
+        <v>0.20661024374944781</v>
       </c>
       <c r="AN3">
-        <v>0.2055456680802265</v>
+        <v>0.20554566808022651</v>
       </c>
       <c r="AO3">
-        <v>0.2044724594857933</v>
+        <v>0.20447245948579329</v>
       </c>
       <c r="AP3">
-        <v>0.2034505524851601</v>
+        <v>0.20345055248516011</v>
       </c>
       <c r="AQ3">
         <v>0.2025656392638894</v>
       </c>
       <c r="AR3">
-        <v>0.2018078101827958</v>
+        <v>0.20180781018279581</v>
       </c>
       <c r="AS3">
-        <v>0.2014380317745124</v>
+        <v>0.20143803177451239</v>
       </c>
       <c r="AT3">
         <v>0.2007559752258862</v>
       </c>
       <c r="AU3">
-        <v>0.2009805274984331</v>
+        <v>0.20098052749843309</v>
       </c>
       <c r="AV3">
-        <v>0.2000587241845888</v>
+        <v>0.20005872418458881</v>
       </c>
       <c r="AW3">
-        <v>0.1993224385501897</v>
+        <v>0.19932243855018969</v>
       </c>
       <c r="AX3">
-        <v>0.1988074387367325</v>
+        <v>0.19880743873673251</v>
       </c>
       <c r="AY3">
-        <v>0.198292812687407</v>
+        <v>0.19829281268740701</v>
       </c>
       <c r="AZ3">
-        <v>0.1977373939800922</v>
+        <v>0.19773739398009221</v>
       </c>
       <c r="BA3">
-        <v>0.1971748689018381</v>
+        <v>0.19717486890183811</v>
       </c>
       <c r="BB3">
-        <v>0.1967968060790997</v>
+        <v>0.19679680607909969</v>
       </c>
       <c r="BC3">
         <v>0.1963512801998421</v>
@@ -1149,31 +5591,31 @@
         <v>0.1959606599568017</v>
       </c>
       <c r="BE3">
-        <v>0.1956029164423052</v>
+        <v>0.19560291644230521</v>
       </c>
       <c r="BF3">
         <v>0.1952679334543628</v>
       </c>
       <c r="BG3">
-        <v>0.1949998008363313</v>
+        <v>0.19499980083633131</v>
       </c>
       <c r="BH3">
-        <v>0.1947002918322845</v>
+        <v>0.19470029183228449</v>
       </c>
       <c r="BI3">
         <v>0.1945238873304001</v>
       </c>
       <c r="BJ3">
-        <v>0.1942646941538151</v>
+        <v>0.19426469415381509</v>
       </c>
       <c r="BK3">
         <v>0.1940614614929243</v>
       </c>
       <c r="BL3">
-        <v>0.1938139764392703</v>
+        <v>0.19381397643927031</v>
       </c>
       <c r="BM3">
-        <v>0.1936107786518537</v>
+        <v>0.19361077865185369</v>
       </c>
       <c r="BN3">
         <v>0.1934508151188592</v>
@@ -1182,25 +5624,25 @@
         <v>0.1932251445128044</v>
       </c>
       <c r="BP3">
-        <v>0.1932426762390864</v>
+        <v>0.19324267623908639</v>
       </c>
       <c r="BQ3">
-        <v>0.1929350782437547</v>
+        <v>0.19293507824375469</v>
       </c>
       <c r="BR3">
-        <v>0.1926919117017779</v>
+        <v>0.19269191170177791</v>
       </c>
       <c r="BS3">
         <v>0.1925400360983868</v>
       </c>
       <c r="BT3">
-        <v>0.1923388069058677</v>
+        <v>0.19233880690586769</v>
       </c>
       <c r="BU3">
-        <v>0.1922349613434738</v>
+        <v>0.19223496134347379</v>
       </c>
       <c r="BV3">
-        <v>0.1920836025423363</v>
+        <v>0.19208360254233631</v>
       </c>
       <c r="BW3">
         <v>0.1918904060868209</v>
@@ -1209,22 +5651,22 @@
         <v>0.1917737951789259</v>
       </c>
       <c r="BY3">
-        <v>0.1915743706095488</v>
+        <v>0.19157437060954879</v>
       </c>
       <c r="BZ3">
-        <v>0.1914799151081784</v>
+        <v>0.19147991510817841</v>
       </c>
       <c r="CA3">
-        <v>0.1914120906192052</v>
+        <v>0.19141209061920519</v>
       </c>
       <c r="CB3">
-        <v>0.1923578114493804</v>
+        <v>0.19235781144938041</v>
       </c>
       <c r="CC3">
         <v>0.1918620353097934</v>
       </c>
       <c r="CD3">
-        <v>0.1914999846747797</v>
+        <v>0.19149998467477969</v>
       </c>
       <c r="CE3">
         <v>0.1915877388280513</v>
@@ -1233,10 +5675,10 @@
         <v>0.1912672491441294</v>
       </c>
       <c r="CG3">
-        <v>0.1915181399733545</v>
+        <v>0.19151813997335451</v>
       </c>
       <c r="CH3">
-        <v>0.1911016288193849</v>
+        <v>0.19110162881938489</v>
       </c>
       <c r="CI3">
         <v>0.1908405016712586</v>
@@ -1245,10 +5687,10 @@
         <v>0.1907329198652909</v>
       </c>
       <c r="CK3">
-        <v>0.1907892855337625</v>
+        <v>0.19078928553376251</v>
       </c>
       <c r="CL3">
-        <v>0.1907232973128452</v>
+        <v>0.19072329731284521</v>
       </c>
       <c r="CM3">
         <v>0.1904768365997187</v>
@@ -1257,10 +5699,10 @@
         <v>0.1902306678412006</v>
       </c>
       <c r="CO3">
-        <v>0.19025726521554</v>
+        <v>0.19025726521554001</v>
       </c>
       <c r="CP3">
-        <v>0.1900685889747374</v>
+        <v>0.19006858897473741</v>
       </c>
       <c r="CQ3">
         <v>0.1899974685373082</v>
@@ -1272,252 +5714,252 @@
         <v>0.1901313221307814</v>
       </c>
       <c r="CT3">
-        <v>0.190093094107056</v>
+        <v>0.19009309410705599</v>
       </c>
       <c r="CU3">
-        <v>0.1898753308584396</v>
+        <v>0.18987533085843961</v>
       </c>
       <c r="CV3">
-        <v>0.1899172602585397</v>
+        <v>0.18991726025853969</v>
       </c>
       <c r="CW3">
-        <v>0.1897539356719744</v>
+        <v>0.18975393567197441</v>
       </c>
     </row>
-    <row r="4" spans="1:101">
+    <row r="4" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4513155768873753</v>
+        <v>0.45131557688737528</v>
       </c>
       <c r="C4">
-        <v>0.3758411133032846</v>
+        <v>0.37584111330328462</v>
       </c>
       <c r="D4">
-        <v>0.3319291158368489</v>
+        <v>0.33192911583684892</v>
       </c>
       <c r="E4">
-        <v>0.3034698456150529</v>
+        <v>0.30346984561505291</v>
       </c>
       <c r="F4">
-        <v>0.287423714317763</v>
+        <v>0.28742371431776298</v>
       </c>
       <c r="G4">
-        <v>0.2738087408768747</v>
+        <v>0.27380874087687468</v>
       </c>
       <c r="H4">
-        <v>0.263727176723811</v>
+        <v>0.26372717672381102</v>
       </c>
       <c r="I4">
         <v>0.2549538829228466</v>
       </c>
       <c r="J4">
-        <v>0.2484799688608127</v>
+        <v>0.24847996886081269</v>
       </c>
       <c r="K4">
-        <v>0.2434924031076345</v>
+        <v>0.24349240310763451</v>
       </c>
       <c r="L4">
-        <v>0.2389274719858057</v>
+        <v>0.23892747198580569</v>
       </c>
       <c r="M4">
-        <v>0.2354054300768204</v>
+        <v>0.23540543007682041</v>
       </c>
       <c r="N4">
-        <v>0.2312771978825016</v>
+        <v>0.23127719788250159</v>
       </c>
       <c r="O4">
         <v>0.2289255599445596</v>
       </c>
       <c r="P4">
-        <v>0.2260865442165975</v>
+        <v>0.22608654421659749</v>
       </c>
       <c r="Q4">
-        <v>0.2236080886727299</v>
+        <v>0.22360808867272991</v>
       </c>
       <c r="R4">
-        <v>0.2213420127544689</v>
+        <v>0.22134201275446891</v>
       </c>
       <c r="S4">
-        <v>0.2195215813006247</v>
+        <v>0.21952158130062471</v>
       </c>
       <c r="T4">
-        <v>0.2176137144060127</v>
+        <v>0.21761371440601271</v>
       </c>
       <c r="U4">
-        <v>0.2160809748095943</v>
+        <v>0.21608097480959429</v>
       </c>
       <c r="V4">
-        <v>0.2147469657598234</v>
+        <v>0.21474696575982341</v>
       </c>
       <c r="W4">
-        <v>0.2135379555102697</v>
+        <v>0.21353795551026969</v>
       </c>
       <c r="X4">
         <v>0.2123997531837534</v>
       </c>
       <c r="Y4">
-        <v>0.2112962856002996</v>
+        <v>0.21129628560029959</v>
       </c>
       <c r="Z4">
         <v>0.2103518955062097</v>
       </c>
       <c r="AA4">
-        <v>0.2094164037372835</v>
+        <v>0.20941640373728351</v>
       </c>
       <c r="AB4">
-        <v>0.2083809525479429</v>
+        <v>0.20838095254794289</v>
       </c>
       <c r="AC4">
-        <v>0.2074172472114965</v>
+        <v>0.20741724721149651</v>
       </c>
       <c r="AD4">
-        <v>0.2068926947428938</v>
+        <v>0.20689269474289379</v>
       </c>
       <c r="AE4">
-        <v>0.2062591210222391</v>
+        <v>0.20625912102223909</v>
       </c>
       <c r="AF4">
-        <v>0.2054705474924461</v>
+        <v>0.20547054749244609</v>
       </c>
       <c r="AG4">
-        <v>0.20482072400874</v>
+        <v>0.20482072400873999</v>
       </c>
       <c r="AH4">
         <v>0.2054886893828046</v>
       </c>
       <c r="AI4">
-        <v>0.2109955817945907</v>
+        <v>0.21099558179459069</v>
       </c>
       <c r="AJ4">
-        <v>0.2098326276403422</v>
+        <v>0.20983262764034219</v>
       </c>
       <c r="AK4">
-        <v>0.2084803854093585</v>
+        <v>0.20848038540935851</v>
       </c>
       <c r="AL4">
-        <v>0.2072751108642576</v>
+        <v>0.20727511086425759</v>
       </c>
       <c r="AM4">
-        <v>0.2063636716830952</v>
+        <v>0.20636367168309519</v>
       </c>
       <c r="AN4">
-        <v>0.2054879422561914</v>
+        <v>0.20548794225619141</v>
       </c>
       <c r="AO4">
         <v>0.2045077334629247</v>
       </c>
       <c r="AP4">
-        <v>0.2036311062231066</v>
+        <v>0.20363110622310659</v>
       </c>
       <c r="AQ4">
-        <v>0.202949963779317</v>
+        <v>0.20294996377931701</v>
       </c>
       <c r="AR4">
-        <v>0.2023128581004675</v>
+        <v>0.20231285810046751</v>
       </c>
       <c r="AS4">
-        <v>0.2017537108223132</v>
+        <v>0.20175371082231319</v>
       </c>
       <c r="AT4">
-        <v>0.2012591639125501</v>
+        <v>0.20125916391255011</v>
       </c>
       <c r="AU4">
-        <v>0.2007481489841273</v>
+        <v>0.20074814898412729</v>
       </c>
       <c r="AV4">
-        <v>0.2003418239512512</v>
+        <v>0.20034182395125119</v>
       </c>
       <c r="AW4">
-        <v>0.1999412110413208</v>
+        <v>0.19994121104132079</v>
       </c>
       <c r="AX4">
-        <v>0.1994314821844214</v>
+        <v>0.19943148218442139</v>
       </c>
       <c r="AY4">
-        <v>0.1992178574501406</v>
+        <v>0.19921785745014059</v>
       </c>
       <c r="AZ4">
         <v>0.1989245770198361</v>
       </c>
       <c r="BA4">
-        <v>0.1989021124538849</v>
+        <v>0.19890211245388489</v>
       </c>
       <c r="BB4">
-        <v>0.198508725242088</v>
+        <v>0.19850872524208801</v>
       </c>
       <c r="BC4">
         <v>0.1981327229923445</v>
       </c>
       <c r="BD4">
-        <v>0.1980454934977345</v>
+        <v>0.19804549349773451</v>
       </c>
       <c r="BE4">
         <v>0.1981844410384217</v>
       </c>
       <c r="BF4">
-        <v>0.1977727135681343</v>
+        <v>0.19777271356813431</v>
       </c>
       <c r="BG4">
-        <v>0.1975257771136792</v>
+        <v>0.19752577711367919</v>
       </c>
       <c r="BH4">
         <v>0.1968160488870897</v>
       </c>
       <c r="BI4">
-        <v>0.1965574923672785</v>
+        <v>0.19655749236727851</v>
       </c>
       <c r="BJ4">
-        <v>0.1964931024770593</v>
+        <v>0.19649310247705931</v>
       </c>
       <c r="BK4">
-        <v>0.1960634164969051</v>
+        <v>0.19606341649690509</v>
       </c>
       <c r="BL4">
-        <v>0.1959718382639737</v>
+        <v>0.19597183826397371</v>
       </c>
       <c r="BM4">
-        <v>0.1955592835380625</v>
+        <v>0.19555928353806251</v>
       </c>
       <c r="BN4">
         <v>0.1955530713133668</v>
       </c>
       <c r="BO4">
-        <v>0.1953799932466976</v>
+        <v>0.19537999324669761</v>
       </c>
       <c r="BP4">
-        <v>0.1951188064226972</v>
+        <v>0.19511880642269719</v>
       </c>
       <c r="BQ4">
-        <v>0.1949884772815889</v>
+        <v>0.19498847728158891</v>
       </c>
       <c r="BR4">
-        <v>0.1949383229696957</v>
+        <v>0.19493832296969571</v>
       </c>
       <c r="BS4">
-        <v>0.194629908755708</v>
+        <v>0.19462990875570799</v>
       </c>
       <c r="BT4">
-        <v>0.1945539185569785</v>
+        <v>0.19455391855697851</v>
       </c>
       <c r="BU4">
-        <v>0.1945765634628454</v>
+        <v>0.19457656346284541</v>
       </c>
       <c r="BV4">
-        <v>0.194572954800677</v>
+        <v>0.19457295480067699</v>
       </c>
       <c r="BW4">
-        <v>0.1939751409331608</v>
+        <v>0.19397514093316079</v>
       </c>
       <c r="BX4">
         <v>0.1939543742579401</v>
       </c>
       <c r="BY4">
-        <v>0.1937662641101091</v>
+        <v>0.19376626411010911</v>
       </c>
       <c r="BZ4">
-        <v>0.1934150347083846</v>
+        <v>0.19341503470838459</v>
       </c>
       <c r="CA4">
         <v>0.1934002795761503</v>
@@ -1529,37 +5971,37 @@
         <v>0.1934110543736072</v>
       </c>
       <c r="CD4">
-        <v>0.1931545342580341</v>
+        <v>0.19315453425803411</v>
       </c>
       <c r="CE4">
-        <v>0.1936879667773868</v>
+        <v>0.19368796677738681</v>
       </c>
       <c r="CF4">
-        <v>0.1935089494458601</v>
+        <v>0.19350894944586011</v>
       </c>
       <c r="CG4">
-        <v>0.1930515586531309</v>
+        <v>0.19305155865313089</v>
       </c>
       <c r="CH4">
         <v>0.1922043609611731</v>
       </c>
       <c r="CI4">
-        <v>0.1920954019530209</v>
+        <v>0.19209540195302091</v>
       </c>
       <c r="CJ4">
-        <v>0.1917028603027298</v>
+        <v>0.19170286030272979</v>
       </c>
       <c r="CK4">
-        <v>0.1916690918629322</v>
+        <v>0.19166909186293221</v>
       </c>
       <c r="CL4">
         <v>0.1914220571499142</v>
       </c>
       <c r="CM4">
-        <v>0.1911219083856708</v>
+        <v>0.19112190838567081</v>
       </c>
       <c r="CN4">
-        <v>0.191027799973479</v>
+        <v>0.19102779997347899</v>
       </c>
       <c r="CO4">
         <v>0.1911308493451751</v>
@@ -1568,60 +6010,60 @@
         <v>0.1914362339228477</v>
       </c>
       <c r="CQ4">
-        <v>0.1911508573715134</v>
+        <v>0.19115085737151341</v>
       </c>
       <c r="CR4">
-        <v>0.1910033429884246</v>
+        <v>0.19100334298842461</v>
       </c>
       <c r="CS4">
-        <v>0.1909530018705339</v>
+        <v>0.19095300187053391</v>
       </c>
       <c r="CT4">
-        <v>0.1906764777375849</v>
+        <v>0.19067647773758489</v>
       </c>
       <c r="CU4">
-        <v>0.190759846124149</v>
+        <v>0.19075984612414901</v>
       </c>
       <c r="CV4">
-        <v>0.1906336058562743</v>
+        <v>0.19063360585627431</v>
       </c>
       <c r="CW4">
-        <v>0.1906748912928166</v>
+        <v>0.19067489129281659</v>
       </c>
     </row>
-    <row r="5" spans="1:101">
+    <row r="5" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4516161020558356</v>
+        <v>0.45161610205583558</v>
       </c>
       <c r="C5">
-        <v>0.374588641763661</v>
+        <v>0.37458864176366102</v>
       </c>
       <c r="D5">
-        <v>0.3327666445294651</v>
+        <v>0.33276664452946508</v>
       </c>
       <c r="E5">
-        <v>0.3052061441853413</v>
+        <v>0.30520614418534131</v>
       </c>
       <c r="F5">
-        <v>0.2871901181474995</v>
+        <v>0.28719011814749951</v>
       </c>
       <c r="G5">
-        <v>0.2730802210902734</v>
+        <v>0.27308022109027341</v>
       </c>
       <c r="H5">
-        <v>0.2640867338583359</v>
+        <v>0.26408673385833592</v>
       </c>
       <c r="I5">
-        <v>0.2566932441824722</v>
+        <v>0.25669324418247219</v>
       </c>
       <c r="J5">
-        <v>0.2500583383655178</v>
+        <v>0.25005833836551777</v>
       </c>
       <c r="K5">
-        <v>0.2444143047974491</v>
+        <v>0.24441430479744911</v>
       </c>
       <c r="L5">
         <v>0.2401810993446892</v>
@@ -1630,16 +6072,16 @@
         <v>0.2364804845275478</v>
       </c>
       <c r="N5">
-        <v>0.2334205034149149</v>
+        <v>0.23342050341491491</v>
       </c>
       <c r="O5">
-        <v>0.2305972561255865</v>
+        <v>0.23059725612558651</v>
       </c>
       <c r="P5">
         <v>0.2281667970218208</v>
       </c>
       <c r="Q5">
-        <v>0.226150199097246</v>
+        <v>0.22615019909724601</v>
       </c>
       <c r="R5">
         <v>0.2245429693335346</v>
@@ -1648,25 +6090,25 @@
         <v>0.2226458649962581</v>
       </c>
       <c r="T5">
-        <v>0.2209763842639759</v>
+        <v>0.22097638426397589</v>
       </c>
       <c r="U5">
-        <v>0.2191640659948323</v>
+        <v>0.21916406599483229</v>
       </c>
       <c r="V5">
-        <v>0.2177758455258434</v>
+        <v>0.21777584552584339</v>
       </c>
       <c r="W5">
-        <v>0.2164484667613304</v>
+        <v>0.21644846676133039</v>
       </c>
       <c r="X5">
-        <v>0.2152584435091756</v>
+        <v>0.21525844350917561</v>
       </c>
       <c r="Y5">
-        <v>0.2144580598226321</v>
+        <v>0.21445805982263211</v>
       </c>
       <c r="Z5">
-        <v>0.2132840350498406</v>
+        <v>0.21328403504984059</v>
       </c>
       <c r="AA5">
         <v>0.2123307180191791</v>
@@ -1675,82 +6117,82 @@
         <v>0.2114986767960372</v>
       </c>
       <c r="AC5">
-        <v>0.2107018971601612</v>
+        <v>0.21070189716016119</v>
       </c>
       <c r="AD5">
-        <v>0.2099874893945474</v>
+        <v>0.20998748939454739</v>
       </c>
       <c r="AE5">
-        <v>0.2092969637464291</v>
+        <v>0.20929696374642909</v>
       </c>
       <c r="AF5">
-        <v>0.2098801693091492</v>
+        <v>0.20988016930914921</v>
       </c>
       <c r="AG5">
         <v>0.2102953534783652</v>
       </c>
       <c r="AH5">
-        <v>0.210260424359119</v>
+        <v>0.21026042435911901</v>
       </c>
       <c r="AI5">
-        <v>0.2089920152055268</v>
+        <v>0.20899201520552679</v>
       </c>
       <c r="AJ5">
-        <v>0.2079510895777691</v>
+        <v>0.20795108957776909</v>
       </c>
       <c r="AK5">
-        <v>0.2070957633803872</v>
+        <v>0.20709576338038721</v>
       </c>
       <c r="AL5">
-        <v>0.2062657329815109</v>
+        <v>0.20626573298151091</v>
       </c>
       <c r="AM5">
-        <v>0.2055276316184654</v>
+        <v>0.20552763161846541</v>
       </c>
       <c r="AN5">
-        <v>0.204919083327685</v>
+        <v>0.20491908332768499</v>
       </c>
       <c r="AO5">
         <v>0.2042839762806529</v>
       </c>
       <c r="AP5">
-        <v>0.2037399835025271</v>
+        <v>0.20373998350252709</v>
       </c>
       <c r="AQ5">
-        <v>0.2039673032149837</v>
+        <v>0.20396730321498369</v>
       </c>
       <c r="AR5">
-        <v>0.2030631339559893</v>
+        <v>0.20306313395598929</v>
       </c>
       <c r="AS5">
-        <v>0.2026982960214478</v>
+        <v>0.20269829602144779</v>
       </c>
       <c r="AT5">
-        <v>0.205719746061587</v>
+        <v>0.20571974606158699</v>
       </c>
       <c r="AU5">
-        <v>0.2040507322107843</v>
+        <v>0.20405073221078429</v>
       </c>
       <c r="AV5">
         <v>0.2031412868598077</v>
       </c>
       <c r="AW5">
-        <v>0.2021213317250574</v>
+        <v>0.20212133172505739</v>
       </c>
       <c r="AX5">
-        <v>0.2018000553898316</v>
+        <v>0.20180005538983159</v>
       </c>
       <c r="AY5">
         <v>0.2011101987727181</v>
       </c>
       <c r="AZ5">
-        <v>0.2006085676579104</v>
+        <v>0.20060856765791041</v>
       </c>
       <c r="BA5">
-        <v>0.2003282717620903</v>
+        <v>0.20032827176209031</v>
       </c>
       <c r="BB5">
-        <v>0.1999425703766402</v>
+        <v>0.19994257037664021</v>
       </c>
       <c r="BC5">
         <v>0.1996289079767421</v>
@@ -1774,43 +6216,43 @@
         <v>0.1975252667974523</v>
       </c>
       <c r="BJ5">
-        <v>0.1972453200584013</v>
+        <v>0.19724532005840131</v>
       </c>
       <c r="BK5">
-        <v>0.1970677860841273</v>
+        <v>0.19706778608412731</v>
       </c>
       <c r="BL5">
-        <v>0.19680686730677</v>
+        <v>0.19680686730676999</v>
       </c>
       <c r="BM5">
-        <v>0.1966124357408527</v>
+        <v>0.19661243574085269</v>
       </c>
       <c r="BN5">
         <v>0.1963856212857244</v>
       </c>
       <c r="BO5">
-        <v>0.1961467205384999</v>
+        <v>0.19614672053849991</v>
       </c>
       <c r="BP5">
-        <v>0.1959955164331323</v>
+        <v>0.19599551643313229</v>
       </c>
       <c r="BQ5">
-        <v>0.1957964506438316</v>
+        <v>0.19579645064383161</v>
       </c>
       <c r="BR5">
-        <v>0.1955158527439322</v>
+        <v>0.19551585274393221</v>
       </c>
       <c r="BS5">
-        <v>0.1955205625651557</v>
+        <v>0.19552056256515571</v>
       </c>
       <c r="BT5">
         <v>0.1953907346380212</v>
       </c>
       <c r="BU5">
-        <v>0.1953374730363749</v>
+        <v>0.19533747303637489</v>
       </c>
       <c r="BV5">
-        <v>0.1952356957944502</v>
+        <v>0.19523569579445019</v>
       </c>
       <c r="BW5">
         <v>0.1950570906211738</v>
@@ -1819,64 +6261,64 @@
         <v>0.1950346208389277</v>
       </c>
       <c r="BY5">
-        <v>0.1948752634544055</v>
+        <v>0.19487526345440551</v>
       </c>
       <c r="BZ5">
-        <v>0.1947945472425278</v>
+        <v>0.19479454724252779</v>
       </c>
       <c r="CA5">
-        <v>0.1947326374359774</v>
+        <v>0.19473263743597741</v>
       </c>
       <c r="CB5">
         <v>0.1945391756557667</v>
       </c>
       <c r="CC5">
-        <v>0.1944773815518384</v>
+        <v>0.19447738155183841</v>
       </c>
       <c r="CD5">
-        <v>0.1944086455210922</v>
+        <v>0.19440864552109219</v>
       </c>
       <c r="CE5">
-        <v>0.1947638778913922</v>
+        <v>0.19476387789139221</v>
       </c>
       <c r="CF5">
         <v>0.1945670698522422</v>
       </c>
       <c r="CG5">
-        <v>0.1944177248224782</v>
+        <v>0.19441772482247821</v>
       </c>
       <c r="CH5">
-        <v>0.1943231464550492</v>
+        <v>0.19432314645504919</v>
       </c>
       <c r="CI5">
-        <v>0.1942609257203951</v>
+        <v>0.19426092572039511</v>
       </c>
       <c r="CJ5">
         <v>0.1941093285424052</v>
       </c>
       <c r="CK5">
-        <v>0.1940883237282142</v>
+        <v>0.19408832372821419</v>
       </c>
       <c r="CL5">
-        <v>0.1939475939241377</v>
+        <v>0.19394759392413771</v>
       </c>
       <c r="CM5">
         <v>0.1949701174027971</v>
       </c>
       <c r="CN5">
-        <v>0.194404514092225</v>
+        <v>0.19440451409222501</v>
       </c>
       <c r="CO5">
         <v>0.1941065303278906</v>
       </c>
       <c r="CP5">
-        <v>0.1938960449413656</v>
+        <v>0.19389604494136559</v>
       </c>
       <c r="CQ5">
-        <v>0.1937092890202504</v>
+        <v>0.19370928902025039</v>
       </c>
       <c r="CR5">
-        <v>0.1966858550909645</v>
+        <v>0.19668585509096451</v>
       </c>
       <c r="CS5">
         <v>0.1966603891750264</v>
@@ -1885,63 +6327,63 @@
         <v>0.1960819184248761</v>
       </c>
       <c r="CU5">
-        <v>0.1957154261603652</v>
+        <v>0.19571542616036519</v>
       </c>
       <c r="CV5">
-        <v>0.1953739809053688</v>
+        <v>0.19537398090536881</v>
       </c>
       <c r="CW5">
-        <v>0.1950430735997319</v>
+        <v>0.19504307359973189</v>
       </c>
     </row>
-    <row r="6" spans="1:101">
+    <row r="6" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4683956828467261</v>
+        <v>0.46839568284672611</v>
       </c>
       <c r="C6">
-        <v>0.394373123534338</v>
+        <v>0.39437312353433801</v>
       </c>
       <c r="D6">
-        <v>0.3508156662397218</v>
+        <v>0.35081566623972182</v>
       </c>
       <c r="E6">
-        <v>0.3231186526651673</v>
+        <v>0.32311865266516732</v>
       </c>
       <c r="F6">
-        <v>0.3043291281835311</v>
+        <v>0.30432912818353108</v>
       </c>
       <c r="G6">
-        <v>0.290588119557295</v>
+        <v>0.29058811955729502</v>
       </c>
       <c r="H6">
-        <v>0.2791138775264569</v>
+        <v>0.27911387752645689</v>
       </c>
       <c r="I6">
-        <v>0.2701916494600604</v>
+        <v>0.27019164946006041</v>
       </c>
       <c r="J6">
-        <v>0.2629144071144527</v>
+        <v>0.26291440711445269</v>
       </c>
       <c r="K6">
-        <v>0.2571474112201276</v>
+        <v>0.25714741122012758</v>
       </c>
       <c r="L6">
         <v>0.2521933897231452</v>
       </c>
       <c r="M6">
-        <v>0.2478642014058346</v>
+        <v>0.24786420140583459</v>
       </c>
       <c r="N6">
-        <v>0.2441516924243615</v>
+        <v>0.24415169242436149</v>
       </c>
       <c r="O6">
-        <v>0.2412300636357377</v>
+        <v>0.24123006363573771</v>
       </c>
       <c r="P6">
-        <v>0.2380690222589308</v>
+        <v>0.23806902225893081</v>
       </c>
       <c r="Q6">
         <v>0.235577096881806</v>
@@ -1950,49 +6392,49 @@
         <v>0.2333176947458393</v>
       </c>
       <c r="S6">
-        <v>0.2314193469554204</v>
+        <v>0.23141934695542041</v>
       </c>
       <c r="T6">
-        <v>0.2290995395904057</v>
+        <v>0.22909953959040569</v>
       </c>
       <c r="U6">
-        <v>0.2271852062112742</v>
+        <v>0.22718520621127419</v>
       </c>
       <c r="V6">
-        <v>0.2262283166881147</v>
+        <v>0.22622831668811469</v>
       </c>
       <c r="W6">
-        <v>0.2245446075125513</v>
+        <v>0.22454460751255129</v>
       </c>
       <c r="X6">
-        <v>0.2227407091316403</v>
+        <v>0.22274070913164029</v>
       </c>
       <c r="Y6">
         <v>0.2211126037778986</v>
       </c>
       <c r="Z6">
-        <v>0.2197995135992009</v>
+        <v>0.21979951359920091</v>
       </c>
       <c r="AA6">
-        <v>0.2184418278667374</v>
+        <v>0.21844182786673741</v>
       </c>
       <c r="AB6">
-        <v>0.2191414929606602</v>
+        <v>0.21914149296066021</v>
       </c>
       <c r="AC6">
-        <v>0.2172691002711561</v>
+        <v>0.21726910027115609</v>
       </c>
       <c r="AD6">
-        <v>0.2159706559339541</v>
+        <v>0.21597065593395409</v>
       </c>
       <c r="AE6">
-        <v>0.2150749418336829</v>
+        <v>0.21507494183368289</v>
       </c>
       <c r="AF6">
-        <v>0.2142484917183567</v>
+        <v>0.21424849171835669</v>
       </c>
       <c r="AG6">
-        <v>0.2137263551446482</v>
+        <v>0.21372635514464819</v>
       </c>
       <c r="AH6">
         <v>0.2124215913037307</v>
@@ -2001,7 +6443,7 @@
         <v>0.2123959554207053</v>
       </c>
       <c r="AJ6">
-        <v>0.2126375367339108</v>
+        <v>0.21263753673391081</v>
       </c>
       <c r="AK6">
         <v>0.2152338789114657</v>
@@ -2010,76 +6452,76 @@
         <v>0.2131653722618283</v>
       </c>
       <c r="AM6">
-        <v>0.2113842360691688</v>
+        <v>0.21138423606916881</v>
       </c>
       <c r="AN6">
         <v>0.2110550640403879</v>
       </c>
       <c r="AO6">
-        <v>0.2097358607059893</v>
+        <v>0.20973586070598929</v>
       </c>
       <c r="AP6">
-        <v>0.2086429700875992</v>
+        <v>0.20864297008759919</v>
       </c>
       <c r="AQ6">
         <v>0.2076097535894981</v>
       </c>
       <c r="AR6">
-        <v>0.2067986340531356</v>
+        <v>0.20679863405313559</v>
       </c>
       <c r="AS6">
         <v>0.2061346486827183</v>
       </c>
       <c r="AT6">
-        <v>0.205475235608281</v>
+        <v>0.20547523560828099</v>
       </c>
       <c r="AU6">
         <v>0.2048436963960302</v>
       </c>
       <c r="AV6">
-        <v>0.2042983873374274</v>
+        <v>0.20429838733742739</v>
       </c>
       <c r="AW6">
-        <v>0.2036734657858932</v>
+        <v>0.20367346578589321</v>
       </c>
       <c r="AX6">
-        <v>0.2032884259976682</v>
+        <v>0.20328842599766819</v>
       </c>
       <c r="AY6">
-        <v>0.2032398890118639</v>
+        <v>0.20323988901186391</v>
       </c>
       <c r="AZ6">
-        <v>0.2023284333264745</v>
+        <v>0.20232843332647449</v>
       </c>
       <c r="BA6">
-        <v>0.201848983457796</v>
+        <v>0.20184898345779601</v>
       </c>
       <c r="BB6">
         <v>0.2012882489707524</v>
       </c>
       <c r="BC6">
-        <v>0.2008712897990935</v>
+        <v>0.20087128979909349</v>
       </c>
       <c r="BD6">
-        <v>0.2007169178980296</v>
+        <v>0.20071691789802959</v>
       </c>
       <c r="BE6">
         <v>0.2003012906268993</v>
       </c>
       <c r="BF6">
-        <v>0.1998942910903135</v>
+        <v>0.19989429109031351</v>
       </c>
       <c r="BG6">
-        <v>0.1994816413653809</v>
+        <v>0.19948164136538091</v>
       </c>
       <c r="BH6">
-        <v>0.1991466519242182</v>
+        <v>0.19914665192421821</v>
       </c>
       <c r="BI6">
-        <v>0.1987703343265065</v>
+        <v>0.19877033432650651</v>
       </c>
       <c r="BJ6">
-        <v>0.1985518387725229</v>
+        <v>0.19855183877252289</v>
       </c>
       <c r="BK6">
         <v>0.1984080757400225</v>
@@ -2088,64 +6530,64 @@
         <v>0.1981679269548105</v>
       </c>
       <c r="BM6">
-        <v>0.1977977632676413</v>
+        <v>0.19779776326764131</v>
       </c>
       <c r="BN6">
-        <v>0.1977507861360016</v>
+        <v>0.19775078613600161</v>
       </c>
       <c r="BO6">
-        <v>0.1976000575148341</v>
+        <v>0.19760005751483409</v>
       </c>
       <c r="BP6">
         <v>0.1972371092989533</v>
       </c>
       <c r="BQ6">
-        <v>0.1970475532085847</v>
+        <v>0.19704755320858469</v>
       </c>
       <c r="BR6">
-        <v>0.1969518778506552</v>
+        <v>0.19695187785065521</v>
       </c>
       <c r="BS6">
-        <v>0.1966862344976389</v>
+        <v>0.19668623449763889</v>
       </c>
       <c r="BT6">
-        <v>0.1965254093895278</v>
+        <v>0.19652540938952781</v>
       </c>
       <c r="BU6">
-        <v>0.1964657917517295</v>
+        <v>0.19646579175172951</v>
       </c>
       <c r="BV6">
-        <v>0.1962315427518274</v>
+        <v>0.19623154275182739</v>
       </c>
       <c r="BW6">
         <v>0.1960446303561465</v>
       </c>
       <c r="BX6">
-        <v>0.1957987388527541</v>
+        <v>0.19579873885275409</v>
       </c>
       <c r="BY6">
-        <v>0.1957108563947838</v>
+        <v>0.19571085639478381</v>
       </c>
       <c r="BZ6">
         <v>0.1958169025358969</v>
       </c>
       <c r="CA6">
-        <v>0.1953789279373613</v>
+        <v>0.19537892793736131</v>
       </c>
       <c r="CB6">
         <v>0.1954073492930325</v>
       </c>
       <c r="CC6">
-        <v>0.1949986190776009</v>
+        <v>0.19499861907760091</v>
       </c>
       <c r="CD6">
-        <v>0.1948736519542159</v>
+        <v>0.19487365195421591</v>
       </c>
       <c r="CE6">
-        <v>0.1947129543865891</v>
+        <v>0.19471295438658909</v>
       </c>
       <c r="CF6">
-        <v>0.1942963921307957</v>
+        <v>0.19429639213079569</v>
       </c>
       <c r="CG6">
         <v>0.1941529487407406</v>
@@ -2157,49 +6599,2728 @@
         <v>0.1936453195122764</v>
       </c>
       <c r="CJ6">
-        <v>0.1935433147555573</v>
+        <v>0.19354331475555731</v>
       </c>
       <c r="CK6">
         <v>0.1934378220219545</v>
       </c>
       <c r="CL6">
-        <v>0.1937110062712387</v>
+        <v>0.19371100627123869</v>
       </c>
       <c r="CM6">
-        <v>0.1932286757341936</v>
+        <v>0.19322867573419361</v>
       </c>
       <c r="CN6">
-        <v>0.1934359989184659</v>
+        <v>0.19343599891846591</v>
       </c>
       <c r="CO6">
-        <v>0.1933943971354058</v>
+        <v>0.19339439713540579</v>
       </c>
       <c r="CP6">
         <v>0.1932626509682559</v>
       </c>
       <c r="CQ6">
-        <v>0.1931902182424005</v>
+        <v>0.19319021824240051</v>
       </c>
       <c r="CR6">
         <v>0.1933873772330936</v>
       </c>
       <c r="CS6">
-        <v>0.1931091276250086</v>
+        <v>0.19310912762500859</v>
       </c>
       <c r="CT6">
-        <v>0.1934407731078084</v>
+        <v>0.19344077310780841</v>
       </c>
       <c r="CU6">
-        <v>0.193163396239473</v>
+        <v>0.19316339623947301</v>
       </c>
       <c r="CV6">
-        <v>0.1931655379788834</v>
+        <v>0.19316553797888339</v>
       </c>
       <c r="CW6">
-        <v>0.1930293254342721</v>
+        <v>0.19302932543427209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(B2:B6)</f>
+        <v>0.46341674244531667</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:BN7" si="0">AVERAGE(C2:C6)</f>
+        <v>0.38612620916257451</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.34200979301845391</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.31310567990144533</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.29440332043760009</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.28050461636114188</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.26987410146306867</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.26147886521536617</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.25462128216844854</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.24922048009813175</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.24437749864088171</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0.24032931488330442</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.23679071170086155</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.23395580528372295</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0.23120531520537063</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0.22859508367891074</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0.226453024649686</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0.2248853202041658</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0.22395883299222225</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0.22166704198430492</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0.22005073431691105</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0.21841407840877899</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>0.21698176703293584</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>0.21569861932549314</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>0.215007567400293</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>0.21376073479494587</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>0.21412612255191749</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>0.21287847346088801</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>0.2116426240755882</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>0.21058496919044453</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>0.20983938892849982</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>0.20925175509012622</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>0.20877322854838548</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>0.20926231095112074</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>0.20895341543293897</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="0"/>
+        <v>0.20860353802145409</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="0"/>
+        <v>0.20808157476428976</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="0"/>
+        <v>0.20703674158147073</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="0"/>
+        <v>0.20632913790203117</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="0"/>
+        <v>0.20547221665213514</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="0"/>
+        <v>0.20462629613910313</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="0"/>
+        <v>0.20407435328831752</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="0"/>
+        <v>0.20336921581010831</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="0"/>
+        <v>0.20291546660498222</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="0"/>
+        <v>0.20309056304133125</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="0"/>
+        <v>0.20251258260571681</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="0"/>
+        <v>0.20188018089030627</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="0"/>
+        <v>0.20127651233197374</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="0"/>
+        <v>0.20085632271468173</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="0"/>
+        <v>0.20051039122218631</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="0"/>
+        <v>0.19998397445890573</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="0"/>
+        <v>0.1996846824628887</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" si="0"/>
+        <v>0.19929347043706339</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" si="0"/>
+        <v>0.19893230857778238</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" si="0"/>
+        <v>0.19870691186315928</v>
+      </c>
+      <c r="BE7">
+        <f t="shared" si="0"/>
+        <v>0.19846566437015153</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" si="0"/>
+        <v>0.19814087734463939</v>
+      </c>
+      <c r="BG7">
+        <f t="shared" si="0"/>
+        <v>0.19789256107266445</v>
+      </c>
+      <c r="BH7">
+        <f t="shared" si="0"/>
+        <v>0.19747983312273645</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" si="0"/>
+        <v>0.19722479726999975</v>
+      </c>
+      <c r="BJ7">
+        <f t="shared" si="0"/>
+        <v>0.19701673876675785</v>
+      </c>
+      <c r="BK7">
+        <f t="shared" si="0"/>
+        <v>0.19679059455013279</v>
+      </c>
+      <c r="BL7">
+        <f t="shared" si="0"/>
+        <v>0.19660156966033951</v>
+      </c>
+      <c r="BM7">
+        <f t="shared" si="0"/>
+        <v>0.19632850877672031</v>
+      </c>
+      <c r="BN7">
+        <f t="shared" si="0"/>
+        <v>0.19623906473479266</v>
+      </c>
+      <c r="BO7">
+        <f t="shared" ref="BO7:CW7" si="1">AVERAGE(BO2:BO6)</f>
+        <v>0.19605417869461736</v>
+      </c>
+      <c r="BP7">
+        <f t="shared" si="1"/>
+        <v>0.19590402833503123</v>
+      </c>
+      <c r="BQ7">
+        <f t="shared" si="1"/>
+        <v>0.19568223775000232</v>
+      </c>
+      <c r="BR7">
+        <f t="shared" si="1"/>
+        <v>0.19551530317249771</v>
+      </c>
+      <c r="BS7">
+        <f t="shared" si="1"/>
+        <v>0.1953696298742793</v>
+      </c>
+      <c r="BT7">
+        <f t="shared" si="1"/>
+        <v>0.1952174751063453</v>
+      </c>
+      <c r="BU7">
+        <f t="shared" si="1"/>
+        <v>0.19515531501490238</v>
+      </c>
+      <c r="BV7">
+        <f t="shared" si="1"/>
+        <v>0.19504182001344583</v>
+      </c>
+      <c r="BW7">
+        <f t="shared" si="1"/>
+        <v>0.19481594735875238</v>
+      </c>
+      <c r="BX7">
+        <f t="shared" si="1"/>
+        <v>0.1947000855170575</v>
+      </c>
+      <c r="BY7">
+        <f t="shared" si="1"/>
+        <v>0.19454320128524799</v>
+      </c>
+      <c r="BZ7">
+        <f t="shared" si="1"/>
+        <v>0.19447209176799421</v>
+      </c>
+      <c r="CA7">
+        <f t="shared" si="1"/>
+        <v>0.19435348637320521</v>
+      </c>
+      <c r="CB7">
+        <f t="shared" si="1"/>
+        <v>0.19444015978858259</v>
+      </c>
+      <c r="CC7">
+        <f t="shared" si="1"/>
+        <v>0.19428209297873522</v>
+      </c>
+      <c r="CD7">
+        <f t="shared" si="1"/>
+        <v>0.19413645104277708</v>
+      </c>
+      <c r="CE7">
+        <f t="shared" si="1"/>
+        <v>0.19424955790594484</v>
+      </c>
+      <c r="CF7">
+        <f t="shared" si="1"/>
+        <v>0.19413518790789869</v>
+      </c>
+      <c r="CG7">
+        <f t="shared" si="1"/>
+        <v>0.19390685734850291</v>
+      </c>
+      <c r="CH7">
+        <f t="shared" si="1"/>
+        <v>0.19357589464349462</v>
+      </c>
+      <c r="CI7">
+        <f t="shared" si="1"/>
+        <v>0.19335916013068968</v>
+      </c>
+      <c r="CJ7">
+        <f t="shared" si="1"/>
+        <v>0.19324045405024409</v>
+      </c>
+      <c r="CK7">
+        <f t="shared" si="1"/>
+        <v>0.19322027341617898</v>
+      </c>
+      <c r="CL7">
+        <f t="shared" si="1"/>
+        <v>0.19312150986714788</v>
+      </c>
+      <c r="CM7">
+        <f t="shared" si="1"/>
+        <v>0.19310935061799911</v>
+      </c>
+      <c r="CN7">
+        <f t="shared" si="1"/>
+        <v>0.192928165043773</v>
+      </c>
+      <c r="CO7">
+        <f t="shared" si="1"/>
+        <v>0.19286192248020662</v>
+      </c>
+      <c r="CP7">
+        <f t="shared" si="1"/>
+        <v>0.19280251993518169</v>
+      </c>
+      <c r="CQ7">
+        <f t="shared" si="1"/>
+        <v>0.19265338972700347</v>
+      </c>
+      <c r="CR7">
+        <f t="shared" si="1"/>
+        <v>0.1932103689767331</v>
+      </c>
+      <c r="CS7">
+        <f t="shared" si="1"/>
+        <v>0.19317981127755274</v>
+      </c>
+      <c r="CT7">
+        <f t="shared" si="1"/>
+        <v>0.19305510932368872</v>
+      </c>
+      <c r="CU7">
+        <f t="shared" si="1"/>
+        <v>0.192878151667601</v>
+      </c>
+      <c r="CV7">
+        <f t="shared" si="1"/>
+        <v>0.19278004565416401</v>
+      </c>
+      <c r="CW7">
+        <f t="shared" si="1"/>
+        <v>0.19263520078628166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1">
+        <v>11</v>
+      </c>
+      <c r="N11" s="1">
+        <v>12</v>
+      </c>
+      <c r="O11" s="1">
+        <v>13</v>
+      </c>
+      <c r="P11" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>15</v>
+      </c>
+      <c r="R11" s="1">
+        <v>16</v>
+      </c>
+      <c r="S11" s="1">
+        <v>17</v>
+      </c>
+      <c r="T11" s="1">
+        <v>18</v>
+      </c>
+      <c r="U11" s="1">
+        <v>19</v>
+      </c>
+      <c r="V11" s="1">
+        <v>20</v>
+      </c>
+      <c r="W11" s="1">
+        <v>21</v>
+      </c>
+      <c r="X11" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>45</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>46</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>47</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>48</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>49</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>51</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>53</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>54</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>56</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>58</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>59</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>60</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>61</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>62</v>
+      </c>
+      <c r="BM11" s="1">
+        <v>63</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>64</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>65</v>
+      </c>
+      <c r="BP11" s="1">
+        <v>66</v>
+      </c>
+      <c r="BQ11" s="1">
+        <v>67</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>68</v>
+      </c>
+      <c r="BS11" s="1">
+        <v>69</v>
+      </c>
+      <c r="BT11" s="1">
+        <v>70</v>
+      </c>
+      <c r="BU11" s="1">
+        <v>71</v>
+      </c>
+      <c r="BV11" s="1">
+        <v>72</v>
+      </c>
+      <c r="BW11" s="1">
+        <v>73</v>
+      </c>
+      <c r="BX11" s="1">
+        <v>74</v>
+      </c>
+      <c r="BY11" s="1">
+        <v>75</v>
+      </c>
+      <c r="BZ11" s="1">
+        <v>76</v>
+      </c>
+      <c r="CA11" s="1">
+        <v>77</v>
+      </c>
+      <c r="CB11" s="1">
+        <v>78</v>
+      </c>
+      <c r="CC11" s="1">
+        <v>79</v>
+      </c>
+      <c r="CD11" s="1">
+        <v>80</v>
+      </c>
+      <c r="CE11" s="1">
+        <v>81</v>
+      </c>
+      <c r="CF11" s="1">
+        <v>82</v>
+      </c>
+      <c r="CG11" s="1">
+        <v>83</v>
+      </c>
+      <c r="CH11" s="1">
+        <v>84</v>
+      </c>
+      <c r="CI11" s="1">
+        <v>85</v>
+      </c>
+      <c r="CJ11" s="1">
+        <v>86</v>
+      </c>
+      <c r="CK11" s="1">
+        <v>87</v>
+      </c>
+      <c r="CL11" s="1">
+        <v>88</v>
+      </c>
+      <c r="CM11" s="1">
+        <v>89</v>
+      </c>
+      <c r="CN11" s="1">
+        <v>90</v>
+      </c>
+      <c r="CO11" s="1">
+        <v>91</v>
+      </c>
+      <c r="CP11" s="1">
+        <v>92</v>
+      </c>
+      <c r="CQ11" s="1">
+        <v>93</v>
+      </c>
+      <c r="CR11" s="1">
+        <v>94</v>
+      </c>
+      <c r="CS11" s="1">
+        <v>95</v>
+      </c>
+      <c r="CT11" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU11" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV11" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW11" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0.63295248349026467</v>
+      </c>
+      <c r="C12">
+        <v>0.58238024750792239</v>
+      </c>
+      <c r="D12">
+        <v>0.51685690525948558</v>
+      </c>
+      <c r="E12">
+        <v>0.47100776326417332</v>
+      </c>
+      <c r="F12">
+        <v>0.42629427322103969</v>
+      </c>
+      <c r="G12">
+        <v>0.40587010735503487</v>
+      </c>
+      <c r="H12">
+        <v>0.35372567243799197</v>
+      </c>
+      <c r="I12">
+        <v>0.31093296428606226</v>
+      </c>
+      <c r="J12">
+        <v>0.3027203026671702</v>
+      </c>
+      <c r="K12">
+        <v>0.30006644995764997</v>
+      </c>
+      <c r="P12">
+        <v>0.2476524676414964</v>
+      </c>
+      <c r="Q12">
+        <v>0.24423553024029779</v>
+      </c>
+      <c r="R12">
+        <v>0.24095780344484641</v>
+      </c>
+      <c r="S12">
+        <v>0.23782798504794819</v>
+      </c>
+      <c r="T12">
+        <v>0.2346495227067677</v>
+      </c>
+      <c r="U12">
+        <v>0.23235436381067109</v>
+      </c>
+      <c r="V12">
+        <v>0.22973335648685211</v>
+      </c>
+      <c r="W12">
+        <v>0.23145899567706241</v>
+      </c>
+      <c r="X12">
+        <v>0.22731691324653019</v>
+      </c>
+      <c r="Y12">
+        <v>0.22382808762354631</v>
+      </c>
+      <c r="Z12">
+        <v>0.22181695646473951</v>
+      </c>
+      <c r="AA12">
+        <v>0.21931395130938891</v>
+      </c>
+      <c r="AB12">
+        <v>0.21731478444769961</v>
+      </c>
+      <c r="AC12">
+        <v>0.21736814833203011</v>
+      </c>
+      <c r="AD12">
+        <v>0.21590111931755079</v>
+      </c>
+      <c r="AE12">
+        <v>0.21456759566092459</v>
+      </c>
+      <c r="AF12">
+        <v>0.21320340860675699</v>
+      </c>
+      <c r="AG12">
+        <v>0.21225335373791121</v>
+      </c>
+      <c r="AH12">
+        <v>0.2113151473860285</v>
+      </c>
+      <c r="AI12">
+        <v>0.21023752599237819</v>
+      </c>
+      <c r="AJ12">
+        <v>0.20948706893792371</v>
+      </c>
+      <c r="AK12">
+        <v>0.20893310486453659</v>
+      </c>
+      <c r="AL12">
+        <v>0.2082612131736368</v>
+      </c>
+      <c r="AM12">
+        <v>0.20748088335038159</v>
+      </c>
+      <c r="AN12">
+        <v>0.20649554628889469</v>
+      </c>
+      <c r="AO12">
+        <v>0.20582384751190161</v>
+      </c>
+      <c r="AP12">
+        <v>0.2052979247871764</v>
+      </c>
+      <c r="AQ12">
+        <v>0.204637931805665</v>
+      </c>
+      <c r="AR12">
+        <v>0.2043610533253154</v>
+      </c>
+      <c r="AS12">
+        <v>0.20366686839712261</v>
+      </c>
+      <c r="AT12">
+        <v>0.2032791065938995</v>
+      </c>
+      <c r="AU12">
+        <v>0.20286364275815341</v>
+      </c>
+      <c r="AV12">
+        <v>0.2025526457239194</v>
+      </c>
+      <c r="AW12">
+        <v>0.20224269439835191</v>
+      </c>
+      <c r="AX12">
+        <v>0.20193980793920921</v>
+      </c>
+      <c r="AY12">
+        <v>0.20156068211845629</v>
+      </c>
+      <c r="AZ12">
+        <v>0.2013241145574077</v>
+      </c>
+      <c r="BA12">
+        <v>0.20095421126475499</v>
+      </c>
+      <c r="BB12">
+        <v>0.20069119818880191</v>
+      </c>
+      <c r="BC12">
+        <v>0.20032090031021529</v>
+      </c>
+      <c r="BD12">
+        <v>0.20016917573883419</v>
+      </c>
+      <c r="BE12">
+        <v>0.19993100151673671</v>
+      </c>
+      <c r="BF12">
+        <v>0.19967734192088971</v>
+      </c>
+      <c r="BG12">
+        <v>0.1995216882218753</v>
+      </c>
+      <c r="BH12">
+        <v>0.1992715268279224</v>
+      </c>
+      <c r="BI12">
+        <v>0.19907214510034429</v>
+      </c>
+      <c r="BJ12">
+        <v>0.1990275391167958</v>
+      </c>
+      <c r="BK12">
+        <v>0.19890652058644839</v>
+      </c>
+      <c r="BL12">
+        <v>0.19874700552836139</v>
+      </c>
+      <c r="BM12">
+        <v>0.19852873837199059</v>
+      </c>
+      <c r="BN12">
+        <v>0.19835223293668469</v>
+      </c>
+      <c r="BO12">
+        <v>0.19824723933687299</v>
+      </c>
+      <c r="BP12">
+        <v>0.19806228268519141</v>
+      </c>
+      <c r="BQ12">
+        <v>0.19805502982001119</v>
+      </c>
+      <c r="BR12">
+        <v>0.19791897766025079</v>
+      </c>
+      <c r="BS12">
+        <v>0.19792603328128691</v>
+      </c>
+      <c r="BT12">
+        <v>0.19764362937225169</v>
+      </c>
+      <c r="BU12">
+        <v>0.19747855059642741</v>
+      </c>
+      <c r="BV12">
+        <v>0.1974714074545072</v>
+      </c>
+      <c r="BW12">
+        <v>0.19727850604133129</v>
+      </c>
+      <c r="BX12">
+        <v>0.19716178548008839</v>
+      </c>
+      <c r="BY12">
+        <v>0.19708530417793821</v>
+      </c>
+      <c r="BZ12">
+        <v>0.19711246879645991</v>
+      </c>
+      <c r="CA12">
+        <v>0.19693889845673959</v>
+      </c>
+      <c r="CB12">
+        <v>0.1967892518573926</v>
+      </c>
+      <c r="CC12">
+        <v>0.19685405924498339</v>
+      </c>
+      <c r="CD12">
+        <v>0.1968434962973318</v>
+      </c>
+      <c r="CE12">
+        <v>0.19670641132509761</v>
+      </c>
+      <c r="CF12">
+        <v>0.1966613745808361</v>
+      </c>
+      <c r="CG12">
+        <v>0.19674543880576351</v>
+      </c>
+      <c r="CH12">
+        <v>0.19649525164630471</v>
+      </c>
+      <c r="CI12">
+        <v>0.19703627896646611</v>
+      </c>
+      <c r="CJ12">
+        <v>0.19639391455281019</v>
+      </c>
+      <c r="CK12">
+        <v>0.19607248592487689</v>
+      </c>
+      <c r="CL12">
+        <v>0.1959536517964974</v>
+      </c>
+      <c r="CM12">
+        <v>0.1961138467852373</v>
+      </c>
+      <c r="CN12">
+        <v>0.1961168439340315</v>
+      </c>
+      <c r="CO12">
+        <v>0.19580359467760361</v>
+      </c>
+      <c r="CP12">
+        <v>0.19574921496761519</v>
+      </c>
+      <c r="CQ12">
+        <v>0.19554184439349451</v>
+      </c>
+      <c r="CR12">
+        <v>0.19542057037702151</v>
+      </c>
+      <c r="CS12">
+        <v>0.19534908086870181</v>
+      </c>
+      <c r="CT12">
+        <v>0.19521911546354481</v>
+      </c>
+      <c r="CU12">
+        <v>0.19502022046870571</v>
+      </c>
+      <c r="CV12">
+        <v>0.1950452155864133</v>
+      </c>
+      <c r="CW12">
+        <v>0.19498328324111819</v>
+      </c>
+      <c r="CX12">
+        <v>0.19487675895557829</v>
+      </c>
+      <c r="CY12">
+        <v>0.1948098432717538</v>
+      </c>
+      <c r="CZ12">
+        <v>0.1946747779326134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.5965307720773757</v>
+      </c>
+      <c r="C13">
+        <v>0.5413540316046499</v>
+      </c>
+      <c r="D13">
+        <v>0.47633177477582889</v>
+      </c>
+      <c r="E13">
+        <v>0.43523150930540816</v>
+      </c>
+      <c r="F13">
+        <v>0.39466198434319227</v>
+      </c>
+      <c r="G13">
+        <v>0.3762891680743054</v>
+      </c>
+      <c r="H13">
+        <v>0.32888424541176908</v>
+      </c>
+      <c r="I13">
+        <v>0.29030258435503853</v>
+      </c>
+      <c r="J13">
+        <v>0.28261152613049967</v>
+      </c>
+      <c r="K13">
+        <v>0.28333197784965852</v>
+      </c>
+      <c r="P13">
+        <v>0.234243990764823</v>
+      </c>
+      <c r="Q13">
+        <v>0.230868634542232</v>
+      </c>
+      <c r="R13">
+        <v>0.22806834326788469</v>
+      </c>
+      <c r="S13">
+        <v>0.22587622748155589</v>
+      </c>
+      <c r="T13">
+        <v>0.22299051103600409</v>
+      </c>
+      <c r="U13">
+        <v>0.22070808260391611</v>
+      </c>
+      <c r="V13">
+        <v>0.22110645128167369</v>
+      </c>
+      <c r="W13">
+        <v>0.2206455310236545</v>
+      </c>
+      <c r="X13">
+        <v>0.21858804965929371</v>
+      </c>
+      <c r="Y13">
+        <v>0.21767445598722751</v>
+      </c>
+      <c r="Z13">
+        <v>0.21572240579500429</v>
+      </c>
+      <c r="AA13">
+        <v>0.2151959780307211</v>
+      </c>
+      <c r="AB13">
+        <v>0.2143113629789358</v>
+      </c>
+      <c r="AC13">
+        <v>0.21423424451418371</v>
+      </c>
+      <c r="AD13">
+        <v>0.2127136050339784</v>
+      </c>
+      <c r="AE13">
+        <v>0.21704189479402269</v>
+      </c>
+      <c r="AF13">
+        <v>0.21580071405486931</v>
+      </c>
+      <c r="AG13">
+        <v>0.2131089265686345</v>
+      </c>
+      <c r="AH13">
+        <v>0.21097867196384329</v>
+      </c>
+      <c r="AI13">
+        <v>0.20936021013016901</v>
+      </c>
+      <c r="AJ13">
+        <v>0.207929273880954</v>
+      </c>
+      <c r="AK13">
+        <v>0.20676233283173651</v>
+      </c>
+      <c r="AL13">
+        <v>0.2056667891611442</v>
+      </c>
+      <c r="AM13">
+        <v>0.20686493986229129</v>
+      </c>
+      <c r="AN13">
+        <v>0.2057121161171645</v>
+      </c>
+      <c r="AO13">
+        <v>0.20787781020195031</v>
+      </c>
+      <c r="AP13">
+        <v>0.20661024374944781</v>
+      </c>
+      <c r="AQ13">
+        <v>0.20554566808022651</v>
+      </c>
+      <c r="AR13">
+        <v>0.20447245948579329</v>
+      </c>
+      <c r="AS13">
+        <v>0.20345055248516011</v>
+      </c>
+      <c r="AT13">
+        <v>0.2025656392638894</v>
+      </c>
+      <c r="AU13">
+        <v>0.20180781018279581</v>
+      </c>
+      <c r="AV13">
+        <v>0.20143803177451239</v>
+      </c>
+      <c r="AW13">
+        <v>0.2007559752258862</v>
+      </c>
+      <c r="AX13">
+        <v>0.20098052749843309</v>
+      </c>
+      <c r="AY13">
+        <v>0.20005872418458881</v>
+      </c>
+      <c r="AZ13">
+        <v>0.19932243855018969</v>
+      </c>
+      <c r="BA13">
+        <v>0.19880743873673251</v>
+      </c>
+      <c r="BB13">
+        <v>0.19829281268740701</v>
+      </c>
+      <c r="BC13">
+        <v>0.19773739398009221</v>
+      </c>
+      <c r="BD13">
+        <v>0.19717486890183811</v>
+      </c>
+      <c r="BE13">
+        <v>0.19679680607909969</v>
+      </c>
+      <c r="BF13">
+        <v>0.1963512801998421</v>
+      </c>
+      <c r="BG13">
+        <v>0.1959606599568017</v>
+      </c>
+      <c r="BH13">
+        <v>0.19560291644230521</v>
+      </c>
+      <c r="BI13">
+        <v>0.1952679334543628</v>
+      </c>
+      <c r="BJ13">
+        <v>0.19499980083633131</v>
+      </c>
+      <c r="BK13">
+        <v>0.19470029183228449</v>
+      </c>
+      <c r="BL13">
+        <v>0.1945238873304001</v>
+      </c>
+      <c r="BM13">
+        <v>0.19426469415381509</v>
+      </c>
+      <c r="BN13">
+        <v>0.1940614614929243</v>
+      </c>
+      <c r="BO13">
+        <v>0.19381397643927031</v>
+      </c>
+      <c r="BP13">
+        <v>0.19361077865185369</v>
+      </c>
+      <c r="BQ13">
+        <v>0.1934508151188592</v>
+      </c>
+      <c r="BR13">
+        <v>0.1932251445128044</v>
+      </c>
+      <c r="BS13">
+        <v>0.19324267623908639</v>
+      </c>
+      <c r="BT13">
+        <v>0.19293507824375469</v>
+      </c>
+      <c r="BU13">
+        <v>0.19269191170177791</v>
+      </c>
+      <c r="BV13">
+        <v>0.1925400360983868</v>
+      </c>
+      <c r="BW13">
+        <v>0.19233880690586769</v>
+      </c>
+      <c r="BX13">
+        <v>0.19223496134347379</v>
+      </c>
+      <c r="BY13">
+        <v>0.19208360254233631</v>
+      </c>
+      <c r="BZ13">
+        <v>0.1918904060868209</v>
+      </c>
+      <c r="CA13">
+        <v>0.1917737951789259</v>
+      </c>
+      <c r="CB13">
+        <v>0.19157437060954879</v>
+      </c>
+      <c r="CC13">
+        <v>0.19147991510817841</v>
+      </c>
+      <c r="CD13">
+        <v>0.19141209061920519</v>
+      </c>
+      <c r="CE13">
+        <v>0.19235781144938041</v>
+      </c>
+      <c r="CF13">
+        <v>0.1918620353097934</v>
+      </c>
+      <c r="CG13">
+        <v>0.19149998467477969</v>
+      </c>
+      <c r="CH13">
+        <v>0.1915877388280513</v>
+      </c>
+      <c r="CI13">
+        <v>0.1912672491441294</v>
+      </c>
+      <c r="CJ13">
+        <v>0.19151813997335451</v>
+      </c>
+      <c r="CK13">
+        <v>0.19110162881938489</v>
+      </c>
+      <c r="CL13">
+        <v>0.1908405016712586</v>
+      </c>
+      <c r="CM13">
+        <v>0.1907329198652909</v>
+      </c>
+      <c r="CN13">
+        <v>0.19078928553376251</v>
+      </c>
+      <c r="CO13">
+        <v>0.19072329731284521</v>
+      </c>
+      <c r="CP13">
+        <v>0.1904768365997187</v>
+      </c>
+      <c r="CQ13">
+        <v>0.1902306678412006</v>
+      </c>
+      <c r="CR13">
+        <v>0.19025726521554001</v>
+      </c>
+      <c r="CS13">
+        <v>0.19006858897473741</v>
+      </c>
+      <c r="CT13">
+        <v>0.1899974685373082</v>
+      </c>
+      <c r="CU13">
+        <v>0.1899550491024771</v>
+      </c>
+      <c r="CV13">
+        <v>0.1901313221307814</v>
+      </c>
+      <c r="CW13">
+        <v>0.19009309410705599</v>
+      </c>
+      <c r="CX13">
+        <v>0.18987533085843961</v>
+      </c>
+      <c r="CY13">
+        <v>0.18991726025853969</v>
+      </c>
+      <c r="CZ13">
+        <v>0.18975393567197441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0.58671024995358789</v>
+      </c>
+      <c r="C14">
+        <v>0.537452792023697</v>
+      </c>
+      <c r="D14">
+        <v>0.47465863564669397</v>
+      </c>
+      <c r="E14">
+        <v>0.43396187922952567</v>
+      </c>
+      <c r="F14">
+        <v>0.39786340230722039</v>
+      </c>
+      <c r="G14">
+        <v>0.37901701147140515</v>
+      </c>
+      <c r="H14">
+        <v>0.33187427918924389</v>
+      </c>
+      <c r="I14">
+        <v>0.29166724206373656</v>
+      </c>
+      <c r="J14">
+        <v>0.28426108437676972</v>
+      </c>
+      <c r="K14">
+        <v>0.28390968255585652</v>
+      </c>
+      <c r="P14">
+        <v>0.23540543007682041</v>
+      </c>
+      <c r="Q14">
+        <v>0.23127719788250159</v>
+      </c>
+      <c r="R14">
+        <v>0.2289255599445596</v>
+      </c>
+      <c r="S14">
+        <v>0.22608654421659749</v>
+      </c>
+      <c r="T14">
+        <v>0.22360808867272991</v>
+      </c>
+      <c r="U14">
+        <v>0.22134201275446891</v>
+      </c>
+      <c r="V14">
+        <v>0.21952158130062471</v>
+      </c>
+      <c r="W14">
+        <v>0.21761371440601271</v>
+      </c>
+      <c r="X14">
+        <v>0.21608097480959429</v>
+      </c>
+      <c r="Y14">
+        <v>0.21474696575982341</v>
+      </c>
+      <c r="Z14">
+        <v>0.21353795551026969</v>
+      </c>
+      <c r="AA14">
+        <v>0.2123997531837534</v>
+      </c>
+      <c r="AB14">
+        <v>0.21129628560029959</v>
+      </c>
+      <c r="AC14">
+        <v>0.2103518955062097</v>
+      </c>
+      <c r="AD14">
+        <v>0.20941640373728351</v>
+      </c>
+      <c r="AE14">
+        <v>0.20838095254794289</v>
+      </c>
+      <c r="AF14">
+        <v>0.20741724721149651</v>
+      </c>
+      <c r="AG14">
+        <v>0.20689269474289379</v>
+      </c>
+      <c r="AH14">
+        <v>0.20625912102223909</v>
+      </c>
+      <c r="AI14">
+        <v>0.20547054749244609</v>
+      </c>
+      <c r="AJ14">
+        <v>0.20482072400873999</v>
+      </c>
+      <c r="AK14">
+        <v>0.2054886893828046</v>
+      </c>
+      <c r="AL14">
+        <v>0.21099558179459069</v>
+      </c>
+      <c r="AM14">
+        <v>0.20983262764034219</v>
+      </c>
+      <c r="AN14">
+        <v>0.20848038540935851</v>
+      </c>
+      <c r="AO14">
+        <v>0.20727511086425759</v>
+      </c>
+      <c r="AP14">
+        <v>0.20636367168309519</v>
+      </c>
+      <c r="AQ14">
+        <v>0.20548794225619141</v>
+      </c>
+      <c r="AR14">
+        <v>0.2045077334629247</v>
+      </c>
+      <c r="AS14">
+        <v>0.20363110622310659</v>
+      </c>
+      <c r="AT14">
+        <v>0.20294996377931701</v>
+      </c>
+      <c r="AU14">
+        <v>0.20231285810046751</v>
+      </c>
+      <c r="AV14">
+        <v>0.20175371082231319</v>
+      </c>
+      <c r="AW14">
+        <v>0.20125916391255011</v>
+      </c>
+      <c r="AX14">
+        <v>0.20074814898412729</v>
+      </c>
+      <c r="AY14">
+        <v>0.20034182395125119</v>
+      </c>
+      <c r="AZ14">
+        <v>0.19994121104132079</v>
+      </c>
+      <c r="BA14">
+        <v>0.19943148218442139</v>
+      </c>
+      <c r="BB14">
+        <v>0.19921785745014059</v>
+      </c>
+      <c r="BC14">
+        <v>0.1989245770198361</v>
+      </c>
+      <c r="BD14">
+        <v>0.19890211245388489</v>
+      </c>
+      <c r="BE14">
+        <v>0.19850872524208801</v>
+      </c>
+      <c r="BF14">
+        <v>0.1981327229923445</v>
+      </c>
+      <c r="BG14">
+        <v>0.19804549349773451</v>
+      </c>
+      <c r="BH14">
+        <v>0.1981844410384217</v>
+      </c>
+      <c r="BI14">
+        <v>0.19777271356813431</v>
+      </c>
+      <c r="BJ14">
+        <v>0.19752577711367919</v>
+      </c>
+      <c r="BK14">
+        <v>0.1968160488870897</v>
+      </c>
+      <c r="BL14">
+        <v>0.19655749236727851</v>
+      </c>
+      <c r="BM14">
+        <v>0.19649310247705931</v>
+      </c>
+      <c r="BN14">
+        <v>0.19606341649690509</v>
+      </c>
+      <c r="BO14">
+        <v>0.19597183826397371</v>
+      </c>
+      <c r="BP14">
+        <v>0.19555928353806251</v>
+      </c>
+      <c r="BQ14">
+        <v>0.1955530713133668</v>
+      </c>
+      <c r="BR14">
+        <v>0.19537999324669761</v>
+      </c>
+      <c r="BS14">
+        <v>0.19511880642269719</v>
+      </c>
+      <c r="BT14">
+        <v>0.19498847728158891</v>
+      </c>
+      <c r="BU14">
+        <v>0.19493832296969571</v>
+      </c>
+      <c r="BV14">
+        <v>0.19462990875570799</v>
+      </c>
+      <c r="BW14">
+        <v>0.19455391855697851</v>
+      </c>
+      <c r="BX14">
+        <v>0.19457656346284541</v>
+      </c>
+      <c r="BY14">
+        <v>0.19457295480067699</v>
+      </c>
+      <c r="BZ14">
+        <v>0.19397514093316079</v>
+      </c>
+      <c r="CA14">
+        <v>0.1939543742579401</v>
+      </c>
+      <c r="CB14">
+        <v>0.19376626411010911</v>
+      </c>
+      <c r="CC14">
+        <v>0.19341503470838459</v>
+      </c>
+      <c r="CD14">
+        <v>0.1934002795761503</v>
+      </c>
+      <c r="CE14">
+        <v>0.1931900512196357</v>
+      </c>
+      <c r="CF14">
+        <v>0.1934110543736072</v>
+      </c>
+      <c r="CG14">
+        <v>0.19315453425803411</v>
+      </c>
+      <c r="CH14">
+        <v>0.19368796677738681</v>
+      </c>
+      <c r="CI14">
+        <v>0.19350894944586011</v>
+      </c>
+      <c r="CJ14">
+        <v>0.19305155865313089</v>
+      </c>
+      <c r="CK14">
+        <v>0.1922043609611731</v>
+      </c>
+      <c r="CL14">
+        <v>0.19209540195302091</v>
+      </c>
+      <c r="CM14">
+        <v>0.19170286030272979</v>
+      </c>
+      <c r="CN14">
+        <v>0.19166909186293221</v>
+      </c>
+      <c r="CO14">
+        <v>0.1914220571499142</v>
+      </c>
+      <c r="CP14">
+        <v>0.19112190838567081</v>
+      </c>
+      <c r="CQ14">
+        <v>0.19102779997347899</v>
+      </c>
+      <c r="CR14">
+        <v>0.1911308493451751</v>
+      </c>
+      <c r="CS14">
+        <v>0.1914362339228477</v>
+      </c>
+      <c r="CT14">
+        <v>0.19115085737151341</v>
+      </c>
+      <c r="CU14">
+        <v>0.19100334298842461</v>
+      </c>
+      <c r="CV14">
+        <v>0.19095300187053391</v>
+      </c>
+      <c r="CW14">
+        <v>0.19067647773758489</v>
+      </c>
+      <c r="CX14">
+        <v>0.19075984612414901</v>
+      </c>
+      <c r="CY14">
+        <v>0.19063360585627431</v>
+      </c>
+      <c r="CZ14">
+        <v>0.19067489129281659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>0.58710093267258623</v>
+      </c>
+      <c r="C15">
+        <v>0.53566175772203528</v>
+      </c>
+      <c r="D15">
+        <v>0.47585630167713511</v>
+      </c>
+      <c r="E15">
+        <v>0.43644478618503812</v>
+      </c>
+      <c r="F15">
+        <v>0.39754004914449487</v>
+      </c>
+      <c r="G15">
+        <v>0.37800856524200022</v>
+      </c>
+      <c r="H15">
+        <v>0.33232674588732997</v>
+      </c>
+      <c r="I15">
+        <v>0.29365707134474822</v>
+      </c>
+      <c r="J15">
+        <v>0.2860667390901524</v>
+      </c>
+      <c r="K15">
+        <v>0.28012048116751276</v>
+      </c>
+      <c r="P15">
+        <v>0.2364804845275478</v>
+      </c>
+      <c r="Q15">
+        <v>0.23342050341491491</v>
+      </c>
+      <c r="R15">
+        <v>0.23059725612558651</v>
+      </c>
+      <c r="S15">
+        <v>0.2281667970218208</v>
+      </c>
+      <c r="T15">
+        <v>0.22615019909724601</v>
+      </c>
+      <c r="U15">
+        <v>0.2245429693335346</v>
+      </c>
+      <c r="V15">
+        <v>0.2226458649962581</v>
+      </c>
+      <c r="W15">
+        <v>0.22097638426397589</v>
+      </c>
+      <c r="X15">
+        <v>0.21916406599483229</v>
+      </c>
+      <c r="Y15">
+        <v>0.21777584552584339</v>
+      </c>
+      <c r="Z15">
+        <v>0.21644846676133039</v>
+      </c>
+      <c r="AA15">
+        <v>0.21525844350917561</v>
+      </c>
+      <c r="AB15">
+        <v>0.21445805982263211</v>
+      </c>
+      <c r="AC15">
+        <v>0.21328403504984059</v>
+      </c>
+      <c r="AD15">
+        <v>0.2123307180191791</v>
+      </c>
+      <c r="AE15">
+        <v>0.2114986767960372</v>
+      </c>
+      <c r="AF15">
+        <v>0.21070189716016119</v>
+      </c>
+      <c r="AG15">
+        <v>0.20998748939454739</v>
+      </c>
+      <c r="AH15">
+        <v>0.20929696374642909</v>
+      </c>
+      <c r="AI15">
+        <v>0.20988016930914921</v>
+      </c>
+      <c r="AJ15">
+        <v>0.2102953534783652</v>
+      </c>
+      <c r="AK15">
+        <v>0.21026042435911901</v>
+      </c>
+      <c r="AL15">
+        <v>0.20899201520552679</v>
+      </c>
+      <c r="AM15">
+        <v>0.20795108957776909</v>
+      </c>
+      <c r="AN15">
+        <v>0.20709576338038721</v>
+      </c>
+      <c r="AO15">
+        <v>0.20626573298151091</v>
+      </c>
+      <c r="AP15">
+        <v>0.20552763161846541</v>
+      </c>
+      <c r="AQ15">
+        <v>0.20491908332768499</v>
+      </c>
+      <c r="AR15">
+        <v>0.2042839762806529</v>
+      </c>
+      <c r="AS15">
+        <v>0.20373998350252709</v>
+      </c>
+      <c r="AT15">
+        <v>0.20396730321498369</v>
+      </c>
+      <c r="AU15">
+        <v>0.20306313395598929</v>
+      </c>
+      <c r="AV15">
+        <v>0.20269829602144779</v>
+      </c>
+      <c r="AW15">
+        <v>0.20571974606158699</v>
+      </c>
+      <c r="AX15">
+        <v>0.20405073221078429</v>
+      </c>
+      <c r="AY15">
+        <v>0.2031412868598077</v>
+      </c>
+      <c r="AZ15">
+        <v>0.20212133172505739</v>
+      </c>
+      <c r="BA15">
+        <v>0.20180005538983159</v>
+      </c>
+      <c r="BB15">
+        <v>0.2011101987727181</v>
+      </c>
+      <c r="BC15">
+        <v>0.20060856765791041</v>
+      </c>
+      <c r="BD15">
+        <v>0.20032827176209031</v>
+      </c>
+      <c r="BE15">
+        <v>0.19994257037664021</v>
+      </c>
+      <c r="BF15">
+        <v>0.1996289079767421</v>
+      </c>
+      <c r="BG15">
+        <v>0.1992897997413553</v>
+      </c>
+      <c r="BH15">
+        <v>0.1989681469152092</v>
+      </c>
+      <c r="BI15">
+        <v>0.198697303510042</v>
+      </c>
+      <c r="BJ15">
+        <v>0.198428046931135</v>
+      </c>
+      <c r="BK15">
+        <v>0.1978296523836415</v>
+      </c>
+      <c r="BL15">
+        <v>0.1975252667974523</v>
+      </c>
+      <c r="BM15">
+        <v>0.19724532005840131</v>
+      </c>
+      <c r="BN15">
+        <v>0.19706778608412731</v>
+      </c>
+      <c r="BO15">
+        <v>0.19680686730676999</v>
+      </c>
+      <c r="BP15">
+        <v>0.19661243574085269</v>
+      </c>
+      <c r="BQ15">
+        <v>0.1963856212857244</v>
+      </c>
+      <c r="BR15">
+        <v>0.19614672053849991</v>
+      </c>
+      <c r="BS15">
+        <v>0.19599551643313229</v>
+      </c>
+      <c r="BT15">
+        <v>0.19579645064383161</v>
+      </c>
+      <c r="BU15">
+        <v>0.19551585274393221</v>
+      </c>
+      <c r="BV15">
+        <v>0.19552056256515571</v>
+      </c>
+      <c r="BW15">
+        <v>0.1953907346380212</v>
+      </c>
+      <c r="BX15">
+        <v>0.19533747303637489</v>
+      </c>
+      <c r="BY15">
+        <v>0.19523569579445019</v>
+      </c>
+      <c r="BZ15">
+        <v>0.1950570906211738</v>
+      </c>
+      <c r="CA15">
+        <v>0.1950346208389277</v>
+      </c>
+      <c r="CB15">
+        <v>0.19487526345440551</v>
+      </c>
+      <c r="CC15">
+        <v>0.19479454724252779</v>
+      </c>
+      <c r="CD15">
+        <v>0.19473263743597741</v>
+      </c>
+      <c r="CE15">
+        <v>0.1945391756557667</v>
+      </c>
+      <c r="CF15">
+        <v>0.19447738155183841</v>
+      </c>
+      <c r="CG15">
+        <v>0.19440864552109219</v>
+      </c>
+      <c r="CH15">
+        <v>0.19476387789139221</v>
+      </c>
+      <c r="CI15">
+        <v>0.1945670698522422</v>
+      </c>
+      <c r="CJ15">
+        <v>0.19441772482247821</v>
+      </c>
+      <c r="CK15">
+        <v>0.19432314645504919</v>
+      </c>
+      <c r="CL15">
+        <v>0.19426092572039511</v>
+      </c>
+      <c r="CM15">
+        <v>0.1941093285424052</v>
+      </c>
+      <c r="CN15">
+        <v>0.19408832372821419</v>
+      </c>
+      <c r="CO15">
+        <v>0.19394759392413771</v>
+      </c>
+      <c r="CP15">
+        <v>0.1949701174027971</v>
+      </c>
+      <c r="CQ15">
+        <v>0.19440451409222501</v>
+      </c>
+      <c r="CR15">
+        <v>0.1941065303278906</v>
+      </c>
+      <c r="CS15">
+        <v>0.19389604494136559</v>
+      </c>
+      <c r="CT15">
+        <v>0.19370928902025039</v>
+      </c>
+      <c r="CU15">
+        <v>0.19668585509096451</v>
+      </c>
+      <c r="CV15">
+        <v>0.1966603891750264</v>
+      </c>
+      <c r="CW15">
+        <v>0.1960819184248761</v>
+      </c>
+      <c r="CX15">
+        <v>0.19571542616036519</v>
+      </c>
+      <c r="CY15">
+        <v>0.19537398090536881</v>
+      </c>
+      <c r="CZ15">
+        <v>0.19504307359973189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0.60891438770074402</v>
+      </c>
+      <c r="C16">
+        <v>0.56395356665410346</v>
+      </c>
+      <c r="D16">
+        <v>0.50166640272280227</v>
+      </c>
+      <c r="E16">
+        <v>0.4620596733111893</v>
+      </c>
+      <c r="F16">
+        <v>0.42126455239677113</v>
+      </c>
+      <c r="G16">
+        <v>0.40224369861599019</v>
+      </c>
+      <c r="H16">
+        <v>0.35123690347929343</v>
+      </c>
+      <c r="I16">
+        <v>0.30909924698230917</v>
+      </c>
+      <c r="J16">
+        <v>0.30077408173893394</v>
+      </c>
+      <c r="K16">
+        <v>0.29220535273808784</v>
+      </c>
+      <c r="P16">
+        <v>0.24786420140583459</v>
+      </c>
+      <c r="Q16">
+        <v>0.24415169242436149</v>
+      </c>
+      <c r="R16">
+        <v>0.24123006363573771</v>
+      </c>
+      <c r="S16">
+        <v>0.23806902225893081</v>
+      </c>
+      <c r="T16">
+        <v>0.235577096881806</v>
+      </c>
+      <c r="U16">
+        <v>0.2333176947458393</v>
+      </c>
+      <c r="V16">
+        <v>0.23141934695542041</v>
+      </c>
+      <c r="W16">
+        <v>0.22909953959040569</v>
+      </c>
+      <c r="X16">
+        <v>0.22718520621127419</v>
+      </c>
+      <c r="Y16">
+        <v>0.22622831668811469</v>
+      </c>
+      <c r="Z16">
+        <v>0.22454460751255129</v>
+      </c>
+      <c r="AA16">
+        <v>0.22274070913164029</v>
+      </c>
+      <c r="AB16">
+        <v>0.2211126037778986</v>
+      </c>
+      <c r="AC16">
+        <v>0.21979951359920091</v>
+      </c>
+      <c r="AD16">
+        <v>0.21844182786673741</v>
+      </c>
+      <c r="AE16">
+        <v>0.21914149296066021</v>
+      </c>
+      <c r="AF16">
+        <v>0.21726910027115609</v>
+      </c>
+      <c r="AG16">
+        <v>0.21597065593395409</v>
+      </c>
+      <c r="AH16">
+        <v>0.21507494183368289</v>
+      </c>
+      <c r="AI16">
+        <v>0.21424849171835669</v>
+      </c>
+      <c r="AJ16">
+        <v>0.21372635514464819</v>
+      </c>
+      <c r="AK16">
+        <v>0.2124215913037307</v>
+      </c>
+      <c r="AL16">
+        <v>0.2123959554207053</v>
+      </c>
+      <c r="AM16">
+        <v>0.21263753673391081</v>
+      </c>
+      <c r="AN16">
+        <v>0.2152338789114657</v>
+      </c>
+      <c r="AO16">
+        <v>0.2131653722618283</v>
+      </c>
+      <c r="AP16">
+        <v>0.21138423606916881</v>
+      </c>
+      <c r="AQ16">
+        <v>0.2110550640403879</v>
+      </c>
+      <c r="AR16">
+        <v>0.20973586070598929</v>
+      </c>
+      <c r="AS16">
+        <v>0.20864297008759919</v>
+      </c>
+      <c r="AT16">
+        <v>0.2076097535894981</v>
+      </c>
+      <c r="AU16">
+        <v>0.20679863405313559</v>
+      </c>
+      <c r="AV16">
+        <v>0.2061346486827183</v>
+      </c>
+      <c r="AW16">
+        <v>0.20547523560828099</v>
+      </c>
+      <c r="AX16">
+        <v>0.2048436963960302</v>
+      </c>
+      <c r="AY16">
+        <v>0.20429838733742739</v>
+      </c>
+      <c r="AZ16">
+        <v>0.20367346578589321</v>
+      </c>
+      <c r="BA16">
+        <v>0.20328842599766819</v>
+      </c>
+      <c r="BB16">
+        <v>0.20323988901186391</v>
+      </c>
+      <c r="BC16">
+        <v>0.20232843332647449</v>
+      </c>
+      <c r="BD16">
+        <v>0.20184898345779601</v>
+      </c>
+      <c r="BE16">
+        <v>0.2012882489707524</v>
+      </c>
+      <c r="BF16">
+        <v>0.20087128979909349</v>
+      </c>
+      <c r="BG16">
+        <v>0.20071691789802959</v>
+      </c>
+      <c r="BH16">
+        <v>0.2003012906268993</v>
+      </c>
+      <c r="BI16">
+        <v>0.19989429109031351</v>
+      </c>
+      <c r="BJ16">
+        <v>0.19948164136538091</v>
+      </c>
+      <c r="BK16">
+        <v>0.19914665192421821</v>
+      </c>
+      <c r="BL16">
+        <v>0.19877033432650651</v>
+      </c>
+      <c r="BM16">
+        <v>0.19855183877252289</v>
+      </c>
+      <c r="BN16">
+        <v>0.1984080757400225</v>
+      </c>
+      <c r="BO16">
+        <v>0.1981679269548105</v>
+      </c>
+      <c r="BP16">
+        <v>0.19779776326764131</v>
+      </c>
+      <c r="BQ16">
+        <v>0.19775078613600161</v>
+      </c>
+      <c r="BR16">
+        <v>0.19760005751483409</v>
+      </c>
+      <c r="BS16">
+        <v>0.1972371092989533</v>
+      </c>
+      <c r="BT16">
+        <v>0.19704755320858469</v>
+      </c>
+      <c r="BU16">
+        <v>0.19695187785065521</v>
+      </c>
+      <c r="BV16">
+        <v>0.19668623449763889</v>
+      </c>
+      <c r="BW16">
+        <v>0.19652540938952781</v>
+      </c>
+      <c r="BX16">
+        <v>0.19646579175172951</v>
+      </c>
+      <c r="BY16">
+        <v>0.19623154275182739</v>
+      </c>
+      <c r="BZ16">
+        <v>0.1960446303561465</v>
+      </c>
+      <c r="CA16">
+        <v>0.19579873885275409</v>
+      </c>
+      <c r="CB16">
+        <v>0.19571085639478381</v>
+      </c>
+      <c r="CC16">
+        <v>0.1958169025358969</v>
+      </c>
+      <c r="CD16">
+        <v>0.19537892793736131</v>
+      </c>
+      <c r="CE16">
+        <v>0.1954073492930325</v>
+      </c>
+      <c r="CF16">
+        <v>0.19499861907760091</v>
+      </c>
+      <c r="CG16">
+        <v>0.19487365195421591</v>
+      </c>
+      <c r="CH16">
+        <v>0.19471295438658909</v>
+      </c>
+      <c r="CI16">
+        <v>0.19429639213079569</v>
+      </c>
+      <c r="CJ16">
+        <v>0.1941529487407406</v>
+      </c>
+      <c r="CK16">
+        <v>0.1941778510569889</v>
+      </c>
+      <c r="CL16">
+        <v>0.1936453195122764</v>
+      </c>
+      <c r="CM16">
+        <v>0.19354331475555731</v>
+      </c>
+      <c r="CN16">
+        <v>0.1934378220219545</v>
+      </c>
+      <c r="CO16">
+        <v>0.19371100627123869</v>
+      </c>
+      <c r="CP16">
+        <v>0.19322867573419361</v>
+      </c>
+      <c r="CQ16">
+        <v>0.19343599891846591</v>
+      </c>
+      <c r="CR16">
+        <v>0.19339439713540579</v>
+      </c>
+      <c r="CS16">
+        <v>0.1932626509682559</v>
+      </c>
+      <c r="CT16">
+        <v>0.19319021824240051</v>
+      </c>
+      <c r="CU16">
+        <v>0.1933873772330936</v>
+      </c>
+      <c r="CV16">
+        <v>0.19310912762500859</v>
+      </c>
+      <c r="CW16">
+        <v>0.19344077310780841</v>
+      </c>
+      <c r="CX16">
+        <v>0.19316339623947301</v>
+      </c>
+      <c r="CY16">
+        <v>0.19316553797888339</v>
+      </c>
+      <c r="CZ16">
+        <v>0.19302932543427209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(B12:B16)</f>
+        <v>0.60244176517891168</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(C12:C16)</f>
+        <v>0.55216047910248167</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:L17" si="2">AVERAGE(D12:D16)</f>
+        <v>0.48907400401638917</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0.44774112225906693</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.40752485228254376</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0.38828571015174712</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.33960956928112573</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0.29913182180637887</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0.29128674680070515</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0.28792678885375317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>0.48688652576174202</v>
+      </c>
+      <c r="C23">
+        <v>0.25232885797506349</v>
+      </c>
+      <c r="D23">
+        <v>0.1946747779326134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>0.45886982467490439</v>
+      </c>
+      <c r="C24">
+        <v>0.23825667417570509</v>
+      </c>
+      <c r="D24">
+        <v>0.18975393567197441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>0.45131557688737528</v>
+      </c>
+      <c r="C25">
+        <v>0.23892747198580569</v>
+      </c>
+      <c r="D25">
+        <v>0.19067489129281659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>0.45161610205583558</v>
+      </c>
+      <c r="C26">
+        <v>0.2401810993446892</v>
+      </c>
+      <c r="D26">
+        <v>0.19504307359973189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>0.46839568284672611</v>
+      </c>
+      <c r="C27">
+        <v>0.2521933897231452</v>
+      </c>
+      <c r="D27">
+        <v>0.19302932543427209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>AVERAGE(B23:B27)</f>
+        <v>0.46341674244531667</v>
+      </c>
+      <c r="C28">
+        <f>AVERAGE(C23:C27)</f>
+        <v>0.24437749864088171</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(D23:D27)</f>
+        <v>0.19263520078628166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>0.63295248349026467</v>
+      </c>
+      <c r="C31">
+        <v>0.28866421352347271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>0.5965307720773757</v>
+      </c>
+      <c r="C32">
+        <v>0.27256563525700667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>0.58671024995358789</v>
+      </c>
+      <c r="C33">
+        <v>0.27333302795176179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>0.58710093267258623</v>
+      </c>
+      <c r="C34">
+        <v>0.27476717765032449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>0.60891438770074402</v>
+      </c>
+      <c r="C35">
+        <v>0.28850923784327814</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>AVERAGE(B31:B35)</f>
+        <v>0.60244176517891168</v>
+      </c>
+      <c r="C36">
+        <f>AVERAGE(C31:C35)</f>
+        <v>0.27956785844516874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>0.1946747779326134</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.19847031700000001</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.20839383285000002</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>0.18975393567197441</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.19368801999999999</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.203372421</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>0.19067489129281659</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.19238142599999999</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0.2020004973</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>0.19504307359973189</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.194336287</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0.20405310135000002</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>0.19302932543427209</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.19770432600000001</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.20758954230000001</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <f>AVERAGE(B52:B56)</f>
+        <v>0.19263520078628166</v>
+      </c>
+      <c r="C57">
+        <f>AVERAGE(C52:C56)</f>
+        <v>0.19531607519999999</v>
+      </c>
+      <c r="D57">
+        <f>AVERAGE(D52:D56)</f>
+        <v>0.20508187896000002</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H58" s="8"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>40</v>
+      </c>
+      <c r="B61">
+        <v>0.28272114799999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>80</v>
+      </c>
+      <c r="B62">
+        <v>0.27091421500000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>160</v>
+      </c>
+      <c r="B63">
+        <v>0.26678393099999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>160</v>
+      </c>
+      <c r="B64">
+        <v>0.26149692899999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>200</v>
+      </c>
+      <c r="B65" s="12">
+        <v>0.25672445300000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>240</v>
+      </c>
+      <c r="B66">
+        <v>0.26977474000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>100</v>
+      </c>
+      <c r="B69">
+        <v>0.28836862299999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>200</v>
+      </c>
+      <c r="B70">
+        <v>0.28272114799999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1000</v>
+      </c>
+      <c r="B71">
+        <v>0.26678393099999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2000</v>
+      </c>
+      <c r="B72" s="12">
+        <v>0.25672445300000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>